--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -227,7 +227,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +294,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +346,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -695,11 +712,11 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="79.125" customWidth="1"/>
@@ -1379,8 +1396,6 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1419,8 +1434,6 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1459,8 +1472,6 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
       <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1503,8 +1514,6 @@
       <c r="M20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
       <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,8 +1554,6 @@
         <v>49</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
       <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,8 +1594,6 @@
         <v>7</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
       <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2668,7 +2673,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +2710,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -2742,7 +2747,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2784,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2817,8 +2822,14 @@
         <v>50</v>
       </c>
       <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
@@ -2858,8 +2869,14 @@
       <c r="M53" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O53" s="22">
+        <v>51</v>
+      </c>
+      <c r="P53" s="22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -2899,8 +2916,14 @@
       <c r="M54" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" s="22">
+        <v>62</v>
+      </c>
+      <c r="P54" s="22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>21</v>
       </c>
@@ -2938,8 +2961,14 @@
         <v>55</v>
       </c>
       <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55" s="22">
+        <v>94</v>
+      </c>
+      <c r="P55" s="22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>21</v>
       </c>
@@ -2977,8 +3006,20 @@
         <v>44</v>
       </c>
       <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" s="3">
+        <v>106</v>
+      </c>
+      <c r="P56" s="3">
+        <v>11</v>
+      </c>
+      <c r="R56" s="7">
+        <v>67</v>
+      </c>
+      <c r="S56" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -3014,8 +3055,20 @@
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>67</v>
+      </c>
+      <c r="P57">
+        <v>13</v>
+      </c>
+      <c r="R57" s="7">
+        <v>100</v>
+      </c>
+      <c r="S57" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -3051,8 +3104,14 @@
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>100</v>
+      </c>
+      <c r="P58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -3088,8 +3147,14 @@
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>83</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -3129,8 +3194,14 @@
       <c r="M60" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>72</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -3166,8 +3237,14 @@
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>78</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -3203,8 +3280,14 @@
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" s="7">
+        <v>78</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>21</v>
       </c>
@@ -3240,8 +3323,14 @@
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" s="11">
+        <v>94</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>21</v>
       </c>
@@ -3277,83 +3366,95 @@
       </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
+      <c r="O64" s="7">
+        <v>66</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="15">
+      <c r="A65" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="28">
         <v>23</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="28">
         <v>211104</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="15">
-        <v>1</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0</v>
-      </c>
-      <c r="J65" s="15">
-        <v>0</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
+      <c r="D65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
+      <c r="G65" s="28">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28">
+        <v>0</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0</v>
+      </c>
+      <c r="J65" s="28">
+        <v>0</v>
+      </c>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="O65" s="7">
+        <v>68</v>
+      </c>
+      <c r="P65" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="18">
+      <c r="A66" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="26">
         <v>23</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="26">
         <v>211104</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="20">
-        <v>1</v>
-      </c>
-      <c r="F66" s="20">
-        <v>0</v>
-      </c>
-      <c r="G66" s="20">
-        <v>0</v>
-      </c>
-      <c r="H66" s="20">
-        <v>0</v>
-      </c>
-      <c r="I66" s="20">
-        <v>0</v>
-      </c>
-      <c r="J66" s="20">
-        <v>0</v>
-      </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20" t="s">
+      <c r="D66" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="28">
+        <v>1</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0</v>
+      </c>
+      <c r="G66" s="28">
+        <v>0</v>
+      </c>
+      <c r="H66" s="28">
+        <v>0</v>
+      </c>
+      <c r="I66" s="28">
+        <v>0</v>
+      </c>
+      <c r="J66" s="28">
+        <v>0</v>
+      </c>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P66" t="s">
-        <v>24</v>
+      <c r="O66">
+        <v>53</v>
+      </c>
+      <c r="P66">
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -3392,8 +3493,12 @@
       </c>
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
+      <c r="O67">
+        <v>109</v>
+      </c>
+      <c r="P67">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
@@ -3431,84 +3536,96 @@
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
+      <c r="O68">
+        <v>126</v>
+      </c>
+      <c r="P68">
+        <v>38</v>
+      </c>
       <c r="Q68" s="22"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="13">
+      <c r="A69" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="26">
         <v>23</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="26">
         <v>211105</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="15">
-        <v>1</v>
-      </c>
-      <c r="F69" s="15">
-        <v>0</v>
-      </c>
-      <c r="G69" s="15">
-        <v>0</v>
-      </c>
-      <c r="H69" s="15">
-        <v>0</v>
-      </c>
-      <c r="I69" s="15">
-        <v>0</v>
-      </c>
-      <c r="J69" s="15">
-        <v>0</v>
-      </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
+      <c r="D69" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="28">
+        <v>1</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0</v>
+      </c>
+      <c r="G69" s="28">
+        <v>0</v>
+      </c>
+      <c r="H69" s="28">
+        <v>0</v>
+      </c>
+      <c r="I69" s="28">
+        <v>0</v>
+      </c>
+      <c r="J69" s="28">
+        <v>0</v>
+      </c>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="O69" s="3">
+        <v>97</v>
+      </c>
+      <c r="P69" s="3">
+        <v>33</v>
+      </c>
       <c r="Q69" s="22"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="13">
+      <c r="A70" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="26">
         <v>23</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="26">
         <v>211105</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="15">
-        <v>1</v>
-      </c>
-      <c r="F70" s="15">
-        <v>0</v>
-      </c>
-      <c r="G70" s="15">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="15">
-        <v>0</v>
-      </c>
-      <c r="J70" s="15">
-        <v>0</v>
-      </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
+      <c r="D70" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="28">
+        <v>1</v>
+      </c>
+      <c r="F70" s="28">
+        <v>0</v>
+      </c>
+      <c r="G70" s="28">
+        <v>0</v>
+      </c>
+      <c r="H70" s="28">
+        <v>0</v>
+      </c>
+      <c r="I70" s="28">
+        <v>0</v>
+      </c>
+      <c r="J70" s="28">
+        <v>0</v>
+      </c>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="O70">
+        <v>98</v>
+      </c>
+      <c r="P70">
+        <v>41</v>
+      </c>
       <c r="Q70" s="22"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -3549,8 +3666,12 @@
       <c r="M71" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
+      <c r="O71">
+        <v>99</v>
+      </c>
+      <c r="P71">
+        <v>36</v>
+      </c>
       <c r="Q71" s="22"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -3589,8 +3710,12 @@
       </c>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
+      <c r="O72">
+        <v>168</v>
+      </c>
+      <c r="P72">
+        <v>55</v>
+      </c>
       <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -3629,8 +3754,12 @@
       </c>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
+      <c r="O73">
+        <v>139</v>
+      </c>
+      <c r="P73">
+        <v>24</v>
+      </c>
       <c r="Q73" s="22"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -3670,12 +3799,10 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
       <c r="O74">
-        <f>SUM(O67:O73)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P74">
-        <f>SUM(P67:P73)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q74" s="22"/>
     </row>
@@ -3716,12 +3843,10 @@
         <v>57</v>
       </c>
       <c r="O75">
-        <f>0.7*O74</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="P75">
-        <f>0.7*P74</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q75" s="22"/>
     </row>
@@ -3761,6 +3886,12 @@
       <c r="M76" s="20" t="s">
         <v>56</v>
       </c>
+      <c r="O76" s="22">
+        <v>98</v>
+      </c>
+      <c r="P76" s="22">
+        <v>42</v>
+      </c>
       <c r="Q76" s="22"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -3799,6 +3930,12 @@
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
+      <c r="O77" s="22">
+        <v>52</v>
+      </c>
+      <c r="P77" s="22">
+        <v>47</v>
+      </c>
       <c r="Q77" s="22"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -3837,78 +3974,96 @@
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
+      <c r="O78" s="22">
+        <v>79</v>
+      </c>
+      <c r="P78" s="22">
+        <v>58</v>
+      </c>
       <c r="Q78" s="22"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="13">
+      <c r="A79" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="26">
         <v>23</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="26">
         <v>211109</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="15">
-        <v>1</v>
-      </c>
-      <c r="F79" s="15">
-        <v>0</v>
-      </c>
-      <c r="G79" s="15">
-        <v>0</v>
-      </c>
-      <c r="H79" s="15">
-        <v>0</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0</v>
-      </c>
-      <c r="J79" s="15">
-        <v>0</v>
-      </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
+      <c r="D79" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="28">
+        <v>1</v>
+      </c>
+      <c r="F79" s="28">
+        <v>0</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0</v>
+      </c>
+      <c r="H79" s="28">
+        <v>0</v>
+      </c>
+      <c r="I79" s="28">
+        <v>0</v>
+      </c>
+      <c r="J79" s="28">
+        <v>0</v>
+      </c>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="O79" s="22">
+        <v>60</v>
+      </c>
+      <c r="P79" s="22">
+        <v>35</v>
+      </c>
       <c r="Q79" s="22"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="13">
+      <c r="A80" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="26">
         <v>23</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="26">
         <v>211109</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="15">
-        <v>1</v>
-      </c>
-      <c r="F80" s="15">
-        <v>0</v>
-      </c>
-      <c r="G80" s="15">
-        <v>0</v>
-      </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="15">
-        <v>0</v>
-      </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
+      <c r="D80" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="28">
+        <v>1</v>
+      </c>
+      <c r="F80" s="28">
+        <v>0</v>
+      </c>
+      <c r="G80" s="28">
+        <v>0</v>
+      </c>
+      <c r="H80" s="28">
+        <v>0</v>
+      </c>
+      <c r="I80" s="28">
+        <v>0</v>
+      </c>
+      <c r="J80" s="28">
+        <v>0</v>
+      </c>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="O80" s="22">
+        <v>38</v>
+      </c>
+      <c r="P80" s="22">
+        <v>0</v>
+      </c>
       <c r="Q80" s="22"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -3947,6 +4102,12 @@
       </c>
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
+      <c r="O81" s="22">
+        <v>79</v>
+      </c>
+      <c r="P81" s="22">
+        <v>34</v>
+      </c>
       <c r="Q81" s="22"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -3985,6 +4146,12 @@
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
+      <c r="O82" s="22">
+        <v>62</v>
+      </c>
+      <c r="P82" s="22">
+        <v>97</v>
+      </c>
       <c r="Q82" s="22"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -4018,11 +4185,19 @@
       <c r="J83" s="15">
         <v>0</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="15">
+        <v>19</v>
+      </c>
       <c r="L83" s="15"/>
       <c r="M83" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="O83">
+        <v>79</v>
+      </c>
+      <c r="P83">
+        <v>101</v>
+      </c>
       <c r="Q83" s="22"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -4056,9 +4231,17 @@
       <c r="J84" s="15">
         <v>0</v>
       </c>
-      <c r="K84" s="15"/>
+      <c r="K84" s="15">
+        <v>39</v>
+      </c>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
+      <c r="O84">
+        <v>59</v>
+      </c>
+      <c r="P84">
+        <v>109</v>
+      </c>
       <c r="Q84" s="22"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -4092,11 +4275,19 @@
       <c r="J85" s="15">
         <v>0</v>
       </c>
-      <c r="K85" s="15"/>
+      <c r="K85" s="15">
+        <v>102</v>
+      </c>
       <c r="L85" s="15"/>
       <c r="M85" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="O85">
+        <v>75</v>
+      </c>
+      <c r="P85">
+        <v>84</v>
+      </c>
       <c r="Q85" s="22"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -4130,9 +4321,17 @@
       <c r="J86" s="15">
         <v>0</v>
       </c>
-      <c r="K86" s="15"/>
+      <c r="K86" s="15">
+        <v>49</v>
+      </c>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
+      <c r="O86">
+        <v>166</v>
+      </c>
+      <c r="P86">
+        <v>52</v>
+      </c>
       <c r="Q86" s="22"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -4166,11 +4365,19 @@
       <c r="J87" s="15">
         <v>0</v>
       </c>
-      <c r="K87" s="15"/>
+      <c r="K87" s="15">
+        <v>136</v>
+      </c>
       <c r="L87" s="15"/>
       <c r="M87" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="O87">
+        <v>140</v>
+      </c>
+      <c r="P87">
+        <v>105</v>
+      </c>
       <c r="Q87" s="22"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -4204,9 +4411,17 @@
       <c r="J88" s="15">
         <v>0</v>
       </c>
-      <c r="K88" s="15"/>
+      <c r="K88" s="15">
+        <v>68</v>
+      </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
+      <c r="O88">
+        <v>19</v>
+      </c>
+      <c r="P88">
+        <v>39</v>
+      </c>
       <c r="Q88" s="22"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -4245,6 +4460,12 @@
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
+      <c r="O89">
+        <v>102</v>
+      </c>
+      <c r="P89">
+        <v>49</v>
+      </c>
       <c r="Q89" s="22"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -4283,268 +4504,470 @@
       </c>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
+      <c r="O90">
+        <v>136</v>
+      </c>
+      <c r="P90">
+        <v>68</v>
+      </c>
       <c r="Q90" s="22"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="21">
+      <c r="A91" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="24">
         <v>28</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="24">
         <v>211115</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
+      <c r="D91" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="15">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0</v>
+      </c>
+      <c r="G91" s="15">
+        <v>0</v>
+      </c>
+      <c r="H91" s="15">
+        <v>0</v>
+      </c>
+      <c r="I91" s="15">
+        <v>0</v>
+      </c>
+      <c r="J91" s="15">
+        <v>0</v>
+      </c>
+      <c r="K91" s="15">
+        <v>94</v>
+      </c>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="O91">
+        <v>76</v>
+      </c>
+      <c r="P91">
+        <v>100</v>
       </c>
       <c r="Q91" s="22"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="21">
+      <c r="A92" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="24">
         <v>28</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="24">
         <v>211115</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="D92" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="15">
+        <v>0</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0</v>
+      </c>
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
+      <c r="H92" s="15">
+        <v>0</v>
+      </c>
+      <c r="I92" s="15">
+        <v>0</v>
+      </c>
+      <c r="J92" s="15">
+        <v>0</v>
+      </c>
+      <c r="K92" s="15">
+        <v>62</v>
+      </c>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="O92">
+        <v>94</v>
+      </c>
+      <c r="P92">
+        <v>62</v>
       </c>
       <c r="Q92" s="22"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="21">
+      <c r="A93" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="24">
         <v>28</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="24">
         <v>211116</v>
       </c>
-      <c r="D93" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
+      <c r="D93" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="15">
+        <v>0</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0</v>
+      </c>
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
+        <v>126</v>
+      </c>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="O93">
+        <v>126</v>
+      </c>
+      <c r="P93">
+        <v>64</v>
       </c>
       <c r="Q93" s="22"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="21">
+      <c r="A94" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="24">
         <v>28</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="24">
         <v>211116</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
+      <c r="D94" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="15">
+        <v>0</v>
+      </c>
+      <c r="F94" s="15">
+        <v>0</v>
+      </c>
+      <c r="G94" s="15">
+        <v>0</v>
+      </c>
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="15">
+        <v>0</v>
+      </c>
+      <c r="K94" s="15">
+        <v>64</v>
+      </c>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="O94">
+        <v>78</v>
+      </c>
+      <c r="P94">
+        <v>84</v>
       </c>
       <c r="Q94" s="22"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="21">
+      <c r="A95" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="24">
         <v>29</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="24">
         <v>211116</v>
       </c>
-      <c r="D95" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
+      <c r="D95" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="15">
+        <v>0</v>
+      </c>
+      <c r="F95" s="15">
+        <v>0</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15">
+        <v>0</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="15">
+        <v>0</v>
+      </c>
+      <c r="K95" s="15">
+        <v>78</v>
+      </c>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="O95">
+        <v>88</v>
+      </c>
+      <c r="P95">
+        <v>131</v>
       </c>
       <c r="Q95" s="22"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="21">
+      <c r="A96" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="24">
         <v>29</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="24">
         <v>211116</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
+      <c r="D96" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="15">
+        <v>0</v>
+      </c>
+      <c r="F96" s="15">
+        <v>0</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0</v>
+      </c>
+      <c r="H96" s="15">
+        <v>0</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="15">
+        <v>0</v>
+      </c>
+      <c r="K96" s="15">
+        <v>84</v>
+      </c>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="O96">
+        <v>98</v>
+      </c>
+      <c r="P96">
+        <v>68</v>
       </c>
       <c r="Q96" s="22"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="21">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="24">
         <v>28</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="24">
         <v>211117</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="21">
+      <c r="D97" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="15">
+        <v>0</v>
+      </c>
+      <c r="F97" s="15">
+        <v>0</v>
+      </c>
+      <c r="G97" s="15">
+        <v>0</v>
+      </c>
+      <c r="H97" s="15">
+        <v>0</v>
+      </c>
+      <c r="I97" s="15">
+        <v>0</v>
+      </c>
+      <c r="J97" s="15">
+        <v>0</v>
+      </c>
+      <c r="K97" s="15">
+        <v>88</v>
+      </c>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="O97">
+        <v>127</v>
+      </c>
+      <c r="P97">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="24">
         <v>28</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="24">
         <v>211117</v>
       </c>
-      <c r="D98" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
+      <c r="D98" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="15">
+        <v>0</v>
+      </c>
+      <c r="F98" s="15">
+        <v>0</v>
+      </c>
+      <c r="G98" s="15">
+        <v>0</v>
+      </c>
+      <c r="H98" s="15">
+        <v>0</v>
+      </c>
+      <c r="I98" s="15">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15">
+        <v>0</v>
+      </c>
+      <c r="K98" s="15">
+        <v>131</v>
+      </c>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="O98">
+        <f>SUM(O53:O97)</f>
+        <v>3974</v>
+      </c>
+      <c r="P98">
+        <f>SUM(P53:P97)</f>
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="24">
+        <v>28</v>
+      </c>
+      <c r="C99" s="24">
+        <v>211118</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15">
+        <v>98</v>
+      </c>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="O99">
+        <f>0.7*O98</f>
+        <v>2781.7999999999997</v>
+      </c>
+      <c r="P99">
+        <f>0.7*P98</f>
+        <v>1535.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="24">
+        <v>28</v>
+      </c>
+      <c r="C100" s="24">
+        <v>211118</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15">
+        <v>68</v>
+      </c>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="O100">
+        <f>0.6*O98</f>
+        <v>2384.4</v>
+      </c>
+      <c r="P100">
+        <f>0.6*P98</f>
+        <v>1316.3999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="24">
+        <v>29</v>
+      </c>
+      <c r="C101" s="24">
+        <v>211118</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="24">
+        <v>29</v>
+      </c>
+      <c r="C102" s="24">
+        <v>211118</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="15">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>CUDA error but might just be from PFC, need to check</t>
+  </si>
+  <si>
+    <t>a lot of the clusters were noise/purely contamination, lower spike count, 1 cluster excluded</t>
+  </si>
+  <si>
+    <t>exclude unless desparately need data</t>
+  </si>
+  <si>
+    <t>noise in signal from turning off manipulator controller? Check that brain regions and channel mapping are correct too</t>
+  </si>
+  <si>
+    <t>Recordings left to do:</t>
+  </si>
+  <si>
+    <t>there were at least 4 instances of double counting so I had to throw out a lot of the clusters with less than 1000 spikes</t>
+  </si>
+  <si>
+    <t>Transferred to my desktop for curation later - Steph</t>
   </si>
 </sst>
 </file>
@@ -227,7 +245,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +324,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -319,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,6 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,11 +739,11 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="79.125" customWidth="1"/>
@@ -1044,41 +1071,49 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>210410</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16">
         <v>62</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="16">
+        <v>40</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1097,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -1115,7 +1150,9 @@
         <v>56</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1137,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1155,7 +1192,9 @@
         <v>94</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
@@ -1177,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1195,7 +1234,9 @@
         <v>68</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -1361,79 +1402,79 @@
       <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="16">
         <v>210415</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16">
         <v>100</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
       <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="16">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="16">
         <v>210415</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>22</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="D18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1</v>
+      </c>
+      <c r="K18" s="16">
+        <v>22</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1667,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1753,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1831,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -2028,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -2046,7 +2087,9 @@
         <v>109</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="N33" s="6">
         <v>10</v>
       </c>
@@ -2071,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -2089,7 +2132,9 @@
         <v>67</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="N34" s="8">
         <v>30</v>
       </c>
@@ -2445,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="7">
         <v>168</v>
@@ -2492,10 +2537,10 @@
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="7">
         <v>55</v>
@@ -2512,41 +2557,43 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="A45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="16">
         <v>25</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="17">
         <v>210907</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="D45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1</v>
+      </c>
+      <c r="K45" s="16">
         <v>139</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="L45" s="16">
+        <v>91</v>
+      </c>
+      <c r="M45" s="16"/>
       <c r="N45">
         <f>N44*0.7</f>
         <v>639.79999999999995</v>
@@ -2556,41 +2603,43 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="A46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="16">
         <v>25</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="17">
         <v>210907</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>24</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="D46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="16">
+        <v>1</v>
+      </c>
+      <c r="J46" s="16">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16">
+        <v>24</v>
+      </c>
+      <c r="L46" s="16">
+        <v>22</v>
+      </c>
+      <c r="M46" s="16"/>
       <c r="N46">
         <f>N44*0.6</f>
         <v>548.4</v>
@@ -2952,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="7">
         <v>79</v>
@@ -3183,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3288,41 +3337,43 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="13">
+      <c r="A63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="29">
         <v>29</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="29">
         <v>211104</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="15">
-        <v>1</v>
-      </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
-      <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0</v>
-      </c>
-      <c r="J63" s="15">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15">
+      <c r="D63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="30">
+        <v>1</v>
+      </c>
+      <c r="F63" s="30">
+        <v>1</v>
+      </c>
+      <c r="G63" s="30">
+        <v>1</v>
+      </c>
+      <c r="H63" s="30">
+        <v>1</v>
+      </c>
+      <c r="I63" s="30">
+        <v>1</v>
+      </c>
+      <c r="J63" s="30">
+        <v>1</v>
+      </c>
+      <c r="K63" s="30">
         <v>62</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
+      <c r="L63" s="30">
+        <v>46</v>
+      </c>
+      <c r="M63" s="30"/>
       <c r="O63" s="11">
         <v>94</v>
       </c>
@@ -3331,41 +3382,43 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="13">
+      <c r="A64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="29">
         <v>29</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="29">
         <v>211104</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="15">
-        <v>1</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0</v>
-      </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="15">
-        <v>0</v>
-      </c>
-      <c r="J64" s="15">
-        <v>0</v>
-      </c>
-      <c r="K64" s="15">
+      <c r="D64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="30">
+        <v>1</v>
+      </c>
+      <c r="G64" s="30">
+        <v>1</v>
+      </c>
+      <c r="H64" s="30">
+        <v>1</v>
+      </c>
+      <c r="I64" s="30">
+        <v>1</v>
+      </c>
+      <c r="J64" s="30">
+        <v>1</v>
+      </c>
+      <c r="K64" s="30">
         <v>97</v>
       </c>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
+      <c r="L64" s="30">
+        <v>70</v>
+      </c>
+      <c r="M64" s="30"/>
       <c r="O64" s="7">
         <v>66</v>
       </c>
@@ -3402,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
@@ -3443,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
@@ -3458,41 +3511,43 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="13">
+      <c r="A67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="29">
         <v>29</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="29">
         <v>211105</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="15">
-        <v>1</v>
-      </c>
-      <c r="F67" s="15">
-        <v>1</v>
-      </c>
-      <c r="G67" s="15">
-        <v>0</v>
-      </c>
-      <c r="H67" s="15">
-        <v>0</v>
-      </c>
-      <c r="I67" s="15">
-        <v>0</v>
-      </c>
-      <c r="J67" s="15">
-        <v>0</v>
-      </c>
-      <c r="K67" s="15">
+      <c r="D67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="30">
+        <v>1</v>
+      </c>
+      <c r="F67" s="30">
+        <v>1</v>
+      </c>
+      <c r="G67" s="30">
+        <v>1</v>
+      </c>
+      <c r="H67" s="30">
+        <v>1</v>
+      </c>
+      <c r="I67" s="30">
+        <v>1</v>
+      </c>
+      <c r="J67" s="30">
+        <v>1</v>
+      </c>
+      <c r="K67" s="30">
         <v>79</v>
       </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
+      <c r="L67" s="30">
+        <v>53</v>
+      </c>
+      <c r="M67" s="30"/>
       <c r="O67">
         <v>109</v>
       </c>
@@ -3501,41 +3556,43 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="13">
+      <c r="A68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="29">
         <v>29</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="29">
         <v>211105</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="15">
-        <v>1</v>
-      </c>
-      <c r="F68" s="15">
-        <v>1</v>
-      </c>
-      <c r="G68" s="15">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="15">
-        <v>0</v>
-      </c>
-      <c r="J68" s="15">
-        <v>0</v>
-      </c>
-      <c r="K68" s="15">
+      <c r="D68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="30">
+        <v>1</v>
+      </c>
+      <c r="F68" s="30">
+        <v>1</v>
+      </c>
+      <c r="G68" s="30">
+        <v>1</v>
+      </c>
+      <c r="H68" s="30">
+        <v>1</v>
+      </c>
+      <c r="I68" s="30">
+        <v>1</v>
+      </c>
+      <c r="J68" s="30">
+        <v>1</v>
+      </c>
+      <c r="K68" s="30">
         <v>101</v>
       </c>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
+      <c r="L68" s="30">
+        <v>71</v>
+      </c>
+      <c r="M68" s="30"/>
       <c r="O68">
         <v>126</v>
       </c>
@@ -3573,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="28"/>
       <c r="L69" s="28"/>
@@ -3615,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="28"/>
       <c r="L70" s="28"/>
@@ -3735,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="15">
         <v>0</v>
@@ -3779,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="15">
         <v>0</v>
@@ -3835,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
@@ -3879,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -4011,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -4053,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="28"/>
       <c r="L80" s="28"/>
@@ -4526,7 +4583,7 @@
         <v>22</v>
       </c>
       <c r="E91" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
@@ -4570,7 +4627,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="15">
         <v>0</v>
@@ -4601,41 +4658,43 @@
       <c r="Q92" s="22"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="24">
+      <c r="A93" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="31">
         <v>28</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="31">
         <v>211116</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="15">
-        <v>0</v>
-      </c>
-      <c r="F93" s="15">
-        <v>0</v>
-      </c>
-      <c r="G93" s="15">
-        <v>0</v>
-      </c>
-      <c r="H93" s="15">
-        <v>0</v>
-      </c>
-      <c r="I93" s="15">
-        <v>0</v>
-      </c>
-      <c r="J93" s="15">
-        <v>0</v>
-      </c>
-      <c r="K93" s="15">
+      <c r="D93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="30">
+        <v>1</v>
+      </c>
+      <c r="F93" s="30">
+        <v>1</v>
+      </c>
+      <c r="G93" s="30">
+        <v>1</v>
+      </c>
+      <c r="H93" s="30">
+        <v>1</v>
+      </c>
+      <c r="I93" s="30">
+        <v>1</v>
+      </c>
+      <c r="J93" s="30">
+        <v>1</v>
+      </c>
+      <c r="K93" s="30">
         <v>126</v>
       </c>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
+      <c r="L93" s="30">
+        <v>93</v>
+      </c>
+      <c r="M93" s="30"/>
       <c r="O93">
         <v>126</v>
       </c>
@@ -4645,41 +4704,43 @@
       <c r="Q93" s="22"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="24">
+      <c r="A94" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="31">
         <v>28</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="31">
         <v>211116</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="15">
-        <v>0</v>
-      </c>
-      <c r="F94" s="15">
-        <v>0</v>
-      </c>
-      <c r="G94" s="15">
-        <v>0</v>
-      </c>
-      <c r="H94" s="15">
-        <v>0</v>
-      </c>
-      <c r="I94" s="15">
-        <v>0</v>
-      </c>
-      <c r="J94" s="15">
-        <v>0</v>
-      </c>
-      <c r="K94" s="15">
+      <c r="D94" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="30">
+        <v>1</v>
+      </c>
+      <c r="F94" s="30">
+        <v>1</v>
+      </c>
+      <c r="G94" s="30">
+        <v>1</v>
+      </c>
+      <c r="H94" s="30">
+        <v>1</v>
+      </c>
+      <c r="I94" s="30">
+        <v>1</v>
+      </c>
+      <c r="J94" s="30">
+        <v>1</v>
+      </c>
+      <c r="K94" s="30">
         <v>64</v>
       </c>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
+      <c r="L94" s="30">
+        <v>51</v>
+      </c>
+      <c r="M94" s="30"/>
       <c r="O94">
         <v>78</v>
       </c>
@@ -4702,7 +4763,7 @@
         <v>22</v>
       </c>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="15">
         <v>0</v>
@@ -4746,7 +4807,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="15">
         <v>0</v>
@@ -4777,41 +4838,45 @@
       <c r="Q96" s="22"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="24">
+      <c r="A97" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="31">
         <v>28</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="31">
         <v>211117</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="15">
-        <v>0</v>
-      </c>
-      <c r="F97" s="15">
-        <v>0</v>
-      </c>
-      <c r="G97" s="15">
-        <v>0</v>
-      </c>
-      <c r="H97" s="15">
-        <v>0</v>
-      </c>
-      <c r="I97" s="15">
-        <v>0</v>
-      </c>
-      <c r="J97" s="15">
-        <v>0</v>
-      </c>
-      <c r="K97" s="15">
+      <c r="D97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="30">
+        <v>1</v>
+      </c>
+      <c r="F97" s="30">
+        <v>0</v>
+      </c>
+      <c r="G97" s="30">
+        <v>0</v>
+      </c>
+      <c r="H97" s="30">
+        <v>0</v>
+      </c>
+      <c r="I97" s="30">
+        <v>0</v>
+      </c>
+      <c r="J97" s="30">
+        <v>1</v>
+      </c>
+      <c r="K97" s="30">
         <v>88</v>
       </c>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
+      <c r="L97" s="30">
+        <v>69</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="O97">
         <v>127</v>
       </c>
@@ -4820,41 +4885,45 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="24">
+      <c r="A98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="31">
         <v>28</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="31">
         <v>211117</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="15">
-        <v>0</v>
-      </c>
-      <c r="F98" s="15">
-        <v>0</v>
-      </c>
-      <c r="G98" s="15">
-        <v>0</v>
-      </c>
-      <c r="H98" s="15">
-        <v>0</v>
-      </c>
-      <c r="I98" s="15">
-        <v>0</v>
-      </c>
-      <c r="J98" s="15">
-        <v>0</v>
-      </c>
-      <c r="K98" s="15">
+      <c r="D98" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="30">
+        <v>1</v>
+      </c>
+      <c r="F98" s="30">
+        <v>0</v>
+      </c>
+      <c r="G98" s="30">
+        <v>0</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+      <c r="I98" s="30">
+        <v>0</v>
+      </c>
+      <c r="J98" s="30">
+        <v>1</v>
+      </c>
+      <c r="K98" s="30">
         <v>131</v>
       </c>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
+      <c r="L98" s="30">
+        <v>85</v>
+      </c>
+      <c r="M98" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="O98">
         <f>SUM(O53:O97)</f>
         <v>3974</v>
@@ -4877,12 +4946,24 @@
       <c r="D99" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
+      <c r="E99" s="15">
+        <v>1</v>
+      </c>
+      <c r="F99" s="15">
+        <v>0</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0</v>
+      </c>
+      <c r="H99" s="15">
+        <v>0</v>
+      </c>
+      <c r="I99" s="15">
+        <v>0</v>
+      </c>
+      <c r="J99" s="15">
+        <v>0</v>
+      </c>
       <c r="K99" s="15">
         <v>98</v>
       </c>
@@ -4913,12 +4994,24 @@
       <c r="D100" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+      <c r="F100" s="15">
+        <v>0</v>
+      </c>
+      <c r="G100" s="15">
+        <v>0</v>
+      </c>
+      <c r="H100" s="15">
+        <v>0</v>
+      </c>
+      <c r="I100" s="15">
+        <v>0</v>
+      </c>
+      <c r="J100" s="15">
+        <v>0</v>
+      </c>
       <c r="K100" s="15">
         <v>68</v>
       </c>
@@ -4949,6 +5042,24 @@
       <c r="D101" s="24" t="s">
         <v>22</v>
       </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="15">
+        <v>0</v>
+      </c>
+      <c r="G101" s="15">
+        <v>0</v>
+      </c>
+      <c r="H101" s="15">
+        <v>0</v>
+      </c>
+      <c r="I101" s="15">
+        <v>0</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0</v>
+      </c>
       <c r="K101" s="15">
         <v>127</v>
       </c>
@@ -4966,8 +5077,563 @@
       <c r="D102" s="24" t="s">
         <v>24</v>
       </c>
+      <c r="E102" s="15">
+        <v>1</v>
+      </c>
+      <c r="F102" s="15">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>0</v>
+      </c>
+      <c r="H102" s="15">
+        <v>0</v>
+      </c>
+      <c r="I102" s="15">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0</v>
+      </c>
       <c r="K102" s="15">
         <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="21">
+        <v>28</v>
+      </c>
+      <c r="C103" s="21">
+        <v>211119</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="21">
+        <v>0</v>
+      </c>
+      <c r="H103" s="21">
+        <v>0</v>
+      </c>
+      <c r="I103" s="21">
+        <v>0</v>
+      </c>
+      <c r="J103" s="21">
+        <v>0</v>
+      </c>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="21">
+        <v>28</v>
+      </c>
+      <c r="C104" s="21">
+        <v>211119</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="21">
+        <v>0</v>
+      </c>
+      <c r="H104" s="21">
+        <v>0</v>
+      </c>
+      <c r="I104" s="21">
+        <v>0</v>
+      </c>
+      <c r="J104" s="21">
+        <v>0</v>
+      </c>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="21">
+        <v>29</v>
+      </c>
+      <c r="C105" s="21">
+        <v>211119</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="21">
+        <v>0</v>
+      </c>
+      <c r="H105" s="21">
+        <v>0</v>
+      </c>
+      <c r="I105" s="21">
+        <v>0</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0</v>
+      </c>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="21">
+        <v>29</v>
+      </c>
+      <c r="C106" s="21">
+        <v>211119</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="21">
+        <v>0</v>
+      </c>
+      <c r="H106" s="21">
+        <v>0</v>
+      </c>
+      <c r="I106" s="21">
+        <v>0</v>
+      </c>
+      <c r="J106" s="21">
+        <v>0</v>
+      </c>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="21">
+        <v>28</v>
+      </c>
+      <c r="C107" s="21">
+        <v>211120</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0</v>
+      </c>
+      <c r="G107" s="21">
+        <v>0</v>
+      </c>
+      <c r="H107" s="21">
+        <v>0</v>
+      </c>
+      <c r="I107" s="21">
+        <v>0</v>
+      </c>
+      <c r="J107" s="21">
+        <v>0</v>
+      </c>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="21">
+        <v>28</v>
+      </c>
+      <c r="C108" s="21">
+        <v>211120</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="22">
+        <v>0</v>
+      </c>
+      <c r="F108" s="21">
+        <v>0</v>
+      </c>
+      <c r="G108" s="21">
+        <v>0</v>
+      </c>
+      <c r="H108" s="21">
+        <v>0</v>
+      </c>
+      <c r="I108" s="21">
+        <v>0</v>
+      </c>
+      <c r="J108" s="21">
+        <v>0</v>
+      </c>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="21">
+        <v>28</v>
+      </c>
+      <c r="C109" s="21">
+        <v>211121</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="22">
+        <v>0</v>
+      </c>
+      <c r="F109" s="21">
+        <v>0</v>
+      </c>
+      <c r="G109" s="21">
+        <v>0</v>
+      </c>
+      <c r="H109" s="21">
+        <v>0</v>
+      </c>
+      <c r="I109" s="21">
+        <v>0</v>
+      </c>
+      <c r="J109" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="21">
+        <v>28</v>
+      </c>
+      <c r="C110" s="21">
+        <v>211121</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="22">
+        <v>0</v>
+      </c>
+      <c r="F110" s="21">
+        <v>0</v>
+      </c>
+      <c r="G110" s="21">
+        <v>0</v>
+      </c>
+      <c r="H110" s="21">
+        <v>0</v>
+      </c>
+      <c r="I110" s="21">
+        <v>0</v>
+      </c>
+      <c r="J110" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="21">
+        <v>28</v>
+      </c>
+      <c r="C111" s="21">
+        <v>211122</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="22">
+        <v>0</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0</v>
+      </c>
+      <c r="G111" s="21">
+        <v>0</v>
+      </c>
+      <c r="H111" s="21">
+        <v>0</v>
+      </c>
+      <c r="I111" s="21">
+        <v>0</v>
+      </c>
+      <c r="J111" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="21">
+        <v>28</v>
+      </c>
+      <c r="C112" s="21">
+        <v>211122</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="22">
+        <v>0</v>
+      </c>
+      <c r="F112" s="21">
+        <v>0</v>
+      </c>
+      <c r="G112" s="21">
+        <v>0</v>
+      </c>
+      <c r="H112" s="21">
+        <v>0</v>
+      </c>
+      <c r="I112" s="21">
+        <v>0</v>
+      </c>
+      <c r="J112" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="21">
+        <v>29</v>
+      </c>
+      <c r="C113" s="21">
+        <v>211122</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="22">
+        <v>0</v>
+      </c>
+      <c r="F113" s="21">
+        <v>0</v>
+      </c>
+      <c r="G113" s="21">
+        <v>0</v>
+      </c>
+      <c r="H113" s="21">
+        <v>0</v>
+      </c>
+      <c r="I113" s="21">
+        <v>0</v>
+      </c>
+      <c r="J113" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="21">
+        <v>29</v>
+      </c>
+      <c r="C114" s="21">
+        <v>211122</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="22">
+        <v>0</v>
+      </c>
+      <c r="F114" s="21">
+        <v>0</v>
+      </c>
+      <c r="G114" s="21">
+        <v>0</v>
+      </c>
+      <c r="H114" s="21">
+        <v>0</v>
+      </c>
+      <c r="I114" s="21">
+        <v>0</v>
+      </c>
+      <c r="J114" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="21">
+        <v>28</v>
+      </c>
+      <c r="C115" s="21">
+        <v>211123</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="22">
+        <v>0</v>
+      </c>
+      <c r="F115" s="21">
+        <v>0</v>
+      </c>
+      <c r="G115" s="21">
+        <v>0</v>
+      </c>
+      <c r="H115" s="21">
+        <v>0</v>
+      </c>
+      <c r="I115" s="21">
+        <v>0</v>
+      </c>
+      <c r="J115" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="21">
+        <v>28</v>
+      </c>
+      <c r="C116" s="21">
+        <v>211123</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="22">
+        <v>0</v>
+      </c>
+      <c r="F116" s="21">
+        <v>0</v>
+      </c>
+      <c r="G116" s="21">
+        <v>0</v>
+      </c>
+      <c r="H116" s="21">
+        <v>0</v>
+      </c>
+      <c r="I116" s="21">
+        <v>0</v>
+      </c>
+      <c r="J116" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="21">
+        <v>29</v>
+      </c>
+      <c r="C117" s="21">
+        <v>211123</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="22">
+        <v>0</v>
+      </c>
+      <c r="F117" s="21">
+        <v>0</v>
+      </c>
+      <c r="G117" s="21">
+        <v>0</v>
+      </c>
+      <c r="H117" s="21">
+        <v>0</v>
+      </c>
+      <c r="I117" s="21">
+        <v>0</v>
+      </c>
+      <c r="J117" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="21">
+        <v>29</v>
+      </c>
+      <c r="C118" s="21">
+        <v>211123</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="22">
+        <v>0</v>
+      </c>
+      <c r="F118" s="21">
+        <v>0</v>
+      </c>
+      <c r="G118" s="21">
+        <v>0</v>
+      </c>
+      <c r="H118" s="21">
+        <v>0</v>
+      </c>
+      <c r="I118" s="21">
+        <v>0</v>
+      </c>
+      <c r="J118" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="I119" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119">
+        <f>ROWS(J3:J118)-SUM(J3:J118)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9570" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -188,9 +188,6 @@
     <t>error = gpuArray input matrix contains nan or inf, experiment notes say minimal spikes</t>
   </si>
   <si>
-    <t>probably less bc only got layer on one shank</t>
-  </si>
-  <si>
     <t>not confident in hippocampal location</t>
   </si>
   <si>
@@ -216,13 +213,46 @@
   </si>
   <si>
     <t>Transferred to my desktop for curation later - Steph</t>
+  </si>
+  <si>
+    <t>Percent survived</t>
+  </si>
+  <si>
+    <t>lots of noise clusters</t>
+  </si>
+  <si>
+    <t>just kinda messy clusters, one bad channel</t>
+  </si>
+  <si>
+    <t>some straight line text message noise, quite a few instances that merging looked very good</t>
+  </si>
+  <si>
+    <t>good amount of double counting but they were all with 9k+ spikes, some had a chuck missing in the front in amplitude view (exact same times)</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Not sure how many survived, had to restart computer before I could look</t>
+  </si>
+  <si>
+    <t>Steph finished but overwrote accidentally, need to rerun using my notes, probably less bc only got layer on one shank</t>
+  </si>
+  <si>
+    <t>Steph finished but overwrote accidentally, need to rerun using my notes</t>
+  </si>
+  <si>
+    <t>CUDA error, might just be from PFC? Need to check the notes</t>
+  </si>
+  <si>
+    <t>Teema downloaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -244,8 +274,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,12 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,6 +361,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -340,10 +389,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,23 +414,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,12 +807,13 @@
     <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="79.125" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
-    <col min="15" max="1025" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="32" customWidth="1"/>
+    <col min="14" max="14" width="79.125" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="1026" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,12 +850,15 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -830,12 +895,13 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -868,11 +934,15 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="31" t="e">
+        <f>L3/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -903,12 +973,16 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" t="s">
+      <c r="M4" s="35" t="e">
+        <f t="shared" ref="M4:M68" si="0">L4/K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -941,15 +1015,19 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -982,13 +1060,17 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" t="s">
+      <c r="M6" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1025,11 +1107,15 @@
       <c r="L7" s="7">
         <v>26</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1064,13 +1150,17 @@
         <v>58</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" t="s">
+      <c r="M8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
@@ -1107,15 +1197,19 @@
       <c r="L9" s="16">
         <v>40</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1150,98 +1244,114 @@
         <v>56</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="M10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>210412</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
         <v>94</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="L11" s="16">
+        <v>68</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>210412</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
         <v>68</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="16">
+        <v>34</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1276,12 +1386,16 @@
         <v>106</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1316,12 +1430,16 @@
         <v>11</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1356,12 +1474,18 @@
         <v>67</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1396,12 +1520,18 @@
         <v>13</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
@@ -1436,10 +1566,14 @@
         <v>100</v>
       </c>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="R17" s="20"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -1474,10 +1608,14 @@
         <v>22</v>
       </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="R18" s="20"/>
+    </row>
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1512,10 +1650,14 @@
         <v>83</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1552,12 +1694,16 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1594,10 +1740,14 @@
       <c r="L21" s="7">
         <v>49</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="33">
+        <f t="shared" si="0"/>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1634,10 +1784,14 @@
       <c r="L22" s="7">
         <v>7</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="33">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1674,12 +1828,16 @@
       <c r="L23" s="7">
         <v>33</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="33">
+        <f t="shared" si="0"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1714,14 +1872,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1758,14 +1920,18 @@
       <c r="L25" s="7">
         <v>49</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="33">
+        <f t="shared" si="0"/>
+        <v>0.52127659574468088</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1802,11 +1968,15 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -1841,9 +2011,13 @@
         <v>66</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1880,11 +2054,15 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="31" t="e">
+        <f>L28/K28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -1921,9 +2099,13 @@
       <c r="L29" s="7">
         <v>46</v>
       </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M29" s="33">
+        <f t="shared" si="0"/>
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -1960,9 +2142,13 @@
       <c r="L30" s="7">
         <v>1</v>
       </c>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M30" s="33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>21</v>
       </c>
@@ -1999,15 +2185,19 @@
       <c r="L31" s="16">
         <v>38</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="6">
+      <c r="M31" s="33">
+        <f t="shared" si="0"/>
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="6">
         <v>8</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>21</v>
       </c>
@@ -2044,105 +2234,117 @@
       <c r="L32" s="16">
         <v>78</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="8">
+      <c r="M32" s="33">
+        <f t="shared" si="0"/>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="8">
         <v>12</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16">
         <v>20</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="17">
         <v>210517</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
         <v>109</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" s="6">
+      <c r="L33" s="16">
+        <v>80</v>
+      </c>
+      <c r="M33" s="33">
+        <f t="shared" si="0"/>
+        <v>0.73394495412844041</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="6">
         <v>10</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="16">
         <v>20</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="17">
         <v>210517</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16">
         <v>67</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" s="8">
+      <c r="L34" s="16">
+        <v>57</v>
+      </c>
+      <c r="M34" s="33">
+        <f t="shared" si="0"/>
+        <v>0.85074626865671643</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="8">
         <v>30</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -2177,9 +2379,13 @@
         <v>126</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
@@ -2214,15 +2420,19 @@
         <v>38</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="6" t="s">
+      <c r="M36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -2257,15 +2467,19 @@
         <v>97</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37">
+      <c r="M37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37">
         <v>2371</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -2300,16 +2514,20 @@
         <v>33</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38">
-        <f>N37*0.7</f>
+      <c r="M38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38">
+        <f>O37*0.7</f>
         <v>1659.6999999999998</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2344,16 +2562,20 @@
         <v>98</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39">
-        <f>N37*0.6</f>
+      <c r="M39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39">
+        <f>O37*0.6</f>
         <v>1422.6</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
@@ -2388,9 +2610,13 @@
         <v>41</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -2425,9 +2651,13 @@
         <v>99</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -2462,9 +2692,13 @@
         <v>36</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>21</v>
       </c>
@@ -2501,17 +2735,21 @@
       <c r="L43" s="7">
         <v>113</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="33">
+        <f t="shared" si="0"/>
+        <v>0.67261904761904767</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
@@ -2548,15 +2786,19 @@
       <c r="L44" s="7">
         <v>39</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44">
+      <c r="M44" s="33">
+        <f>L44/K44</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44">
         <v>914</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>21</v>
       </c>
@@ -2593,16 +2835,20 @@
       <c r="L45" s="16">
         <v>91</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45">
-        <f>N44*0.7</f>
+      <c r="M45" s="33">
+        <f t="shared" si="0"/>
+        <v>0.65467625899280579</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="O45">
+        <f>O44*0.7</f>
         <v>639.79999999999995</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>21</v>
       </c>
@@ -2639,16 +2885,20 @@
       <c r="L46" s="16">
         <v>22</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46">
-        <f>N44*0.6</f>
+      <c r="M46" s="33">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="O46">
+        <f>O44*0.6</f>
         <v>548.4</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -2683,9 +2933,15 @@
         <v>88</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -2720,9 +2976,15 @@
         <v>49</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M48" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -2757,9 +3019,13 @@
         <v>47</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M49" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -2794,9 +3060,13 @@
         <v>29</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M50" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -2831,9 +3101,13 @@
         <v>98</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M51" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2870,15 +3144,19 @@
       <c r="L52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="O52" t="s">
+      <c r="M52" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="P52" t="s">
         <v>22</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
@@ -2915,17 +3193,21 @@
       <c r="L53" s="7">
         <v>42</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="33">
+        <f t="shared" si="0"/>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="22">
+      <c r="P53" s="20">
         <v>51</v>
       </c>
-      <c r="P53" s="22">
+      <c r="Q53" s="20">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -2962,17 +3244,21 @@
       <c r="L54" s="11">
         <v>41</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="33">
+        <f t="shared" si="0"/>
+        <v>0.87234042553191493</v>
+      </c>
+      <c r="N54" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O54" s="22">
+      <c r="P54" s="20">
         <v>62</v>
       </c>
-      <c r="P54" s="22">
+      <c r="Q54" s="20">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>21</v>
       </c>
@@ -3009,15 +3295,19 @@
       <c r="L55" s="7">
         <v>55</v>
       </c>
-      <c r="M55" s="7"/>
-      <c r="O55" s="22">
+      <c r="M55" s="33">
+        <f t="shared" si="0"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="N55" s="7"/>
+      <c r="P55" s="20">
         <v>94</v>
       </c>
-      <c r="P55" s="22">
+      <c r="Q55" s="20">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>21</v>
       </c>
@@ -3054,21 +3344,25 @@
       <c r="L56" s="7">
         <v>44</v>
       </c>
-      <c r="M56" s="7"/>
-      <c r="O56" s="3">
+      <c r="M56" s="33">
+        <f t="shared" si="0"/>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="P56" s="3">
         <v>106</v>
       </c>
-      <c r="P56" s="3">
+      <c r="Q56" s="3">
         <v>11</v>
       </c>
-      <c r="R56" s="7">
+      <c r="S56" s="7">
         <v>67</v>
       </c>
-      <c r="S56" s="7">
+      <c r="T56" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -3103,21 +3397,25 @@
         <v>60</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="O57">
+      <c r="M57" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="P57">
         <v>67</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>13</v>
       </c>
-      <c r="R57" s="7">
+      <c r="S57" s="7">
         <v>100</v>
       </c>
-      <c r="S57" s="7">
+      <c r="T57" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -3152,15 +3450,19 @@
         <v>35</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="O58">
+      <c r="M58" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4"/>
+      <c r="P58">
         <v>100</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -3195,15 +3497,19 @@
         <v>38</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="O59">
+      <c r="M59" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="P59">
         <v>83</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -3240,17 +3546,21 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>72</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -3285,15 +3595,19 @@
         <v>79</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="O61">
+      <c r="M61" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="4"/>
+      <c r="P61">
         <v>78</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -3328,364 +3642,398 @@
         <v>34</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="O62" s="7">
+      <c r="M62" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="4"/>
+      <c r="P62" s="7">
         <v>78</v>
       </c>
-      <c r="P62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="29">
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="27">
         <v>29</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="27">
         <v>211104</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="30">
-        <v>1</v>
-      </c>
-      <c r="F63" s="30">
-        <v>1</v>
-      </c>
-      <c r="G63" s="30">
-        <v>1</v>
-      </c>
-      <c r="H63" s="30">
-        <v>1</v>
-      </c>
-      <c r="I63" s="30">
-        <v>1</v>
-      </c>
-      <c r="J63" s="30">
-        <v>1</v>
-      </c>
-      <c r="K63" s="30">
+      <c r="E63" s="28">
+        <v>1</v>
+      </c>
+      <c r="F63" s="28">
+        <v>1</v>
+      </c>
+      <c r="G63" s="28">
+        <v>1</v>
+      </c>
+      <c r="H63" s="28">
+        <v>1</v>
+      </c>
+      <c r="I63" s="28">
+        <v>1</v>
+      </c>
+      <c r="J63" s="28">
+        <v>1</v>
+      </c>
+      <c r="K63" s="28">
         <v>62</v>
       </c>
-      <c r="L63" s="30">
+      <c r="L63" s="28">
         <v>46</v>
       </c>
-      <c r="M63" s="30"/>
-      <c r="O63" s="11">
+      <c r="M63" s="33">
+        <f t="shared" si="0"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="N63" s="28"/>
+      <c r="P63" s="11">
         <v>94</v>
       </c>
-      <c r="P63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="29">
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="27">
         <v>29</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="27">
         <v>211104</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="30">
-        <v>1</v>
-      </c>
-      <c r="F64" s="30">
-        <v>1</v>
-      </c>
-      <c r="G64" s="30">
-        <v>1</v>
-      </c>
-      <c r="H64" s="30">
-        <v>1</v>
-      </c>
-      <c r="I64" s="30">
-        <v>1</v>
-      </c>
-      <c r="J64" s="30">
-        <v>1</v>
-      </c>
-      <c r="K64" s="30">
+      <c r="E64" s="28">
+        <v>1</v>
+      </c>
+      <c r="F64" s="28">
+        <v>1</v>
+      </c>
+      <c r="G64" s="28">
+        <v>1</v>
+      </c>
+      <c r="H64" s="28">
+        <v>1</v>
+      </c>
+      <c r="I64" s="28">
+        <v>1</v>
+      </c>
+      <c r="J64" s="28">
+        <v>1</v>
+      </c>
+      <c r="K64" s="28">
         <v>97</v>
       </c>
-      <c r="L64" s="30">
+      <c r="L64" s="28">
         <v>70</v>
       </c>
-      <c r="M64" s="30"/>
-      <c r="O64" s="7">
+      <c r="M64" s="33">
+        <f t="shared" si="0"/>
+        <v>0.72164948453608246</v>
+      </c>
+      <c r="N64" s="28"/>
+      <c r="P64" s="7">
         <v>66</v>
       </c>
-      <c r="P64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="28">
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="26">
         <v>23</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="26">
         <v>211104</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="28">
-        <v>1</v>
-      </c>
-      <c r="F65" s="28">
-        <v>0</v>
-      </c>
-      <c r="G65" s="28">
-        <v>0</v>
-      </c>
-      <c r="H65" s="28">
-        <v>0</v>
-      </c>
-      <c r="I65" s="28">
-        <v>0</v>
-      </c>
-      <c r="J65" s="28">
-        <v>1</v>
-      </c>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="O65" s="7">
+      <c r="E65" s="26">
+        <v>1</v>
+      </c>
+      <c r="F65" s="26">
+        <v>0</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26">
+        <v>0</v>
+      </c>
+      <c r="I65" s="26">
+        <v>0</v>
+      </c>
+      <c r="J65" s="26">
+        <v>1</v>
+      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="26"/>
+      <c r="P65" s="7">
         <v>68</v>
       </c>
-      <c r="P65" s="7">
+      <c r="Q65" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="26">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="24">
         <v>23</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="24">
         <v>211104</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="28">
-        <v>1</v>
-      </c>
-      <c r="F66" s="28">
-        <v>0</v>
-      </c>
-      <c r="G66" s="28">
-        <v>0</v>
-      </c>
-      <c r="H66" s="28">
-        <v>0</v>
-      </c>
-      <c r="I66" s="28">
-        <v>0</v>
-      </c>
-      <c r="J66" s="28">
-        <v>1</v>
-      </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="O66">
+      <c r="E66" s="26">
+        <v>1</v>
+      </c>
+      <c r="F66" s="26">
+        <v>0</v>
+      </c>
+      <c r="G66" s="26">
+        <v>0</v>
+      </c>
+      <c r="H66" s="26">
+        <v>0</v>
+      </c>
+      <c r="I66" s="26">
+        <v>0</v>
+      </c>
+      <c r="J66" s="26">
+        <v>1</v>
+      </c>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="26"/>
+      <c r="P66">
         <v>53</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="29">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="27">
         <v>29</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="27">
         <v>211105</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="30">
-        <v>1</v>
-      </c>
-      <c r="F67" s="30">
-        <v>1</v>
-      </c>
-      <c r="G67" s="30">
-        <v>1</v>
-      </c>
-      <c r="H67" s="30">
-        <v>1</v>
-      </c>
-      <c r="I67" s="30">
-        <v>1</v>
-      </c>
-      <c r="J67" s="30">
-        <v>1</v>
-      </c>
-      <c r="K67" s="30">
+      <c r="E67" s="28">
+        <v>1</v>
+      </c>
+      <c r="F67" s="28">
+        <v>1</v>
+      </c>
+      <c r="G67" s="28">
+        <v>1</v>
+      </c>
+      <c r="H67" s="28">
+        <v>1</v>
+      </c>
+      <c r="I67" s="28">
+        <v>1</v>
+      </c>
+      <c r="J67" s="28">
+        <v>1</v>
+      </c>
+      <c r="K67" s="28">
         <v>79</v>
       </c>
-      <c r="L67" s="30">
+      <c r="L67" s="28">
         <v>53</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="O67">
+      <c r="M67" s="33">
+        <f>L67/K67</f>
+        <v>0.67088607594936711</v>
+      </c>
+      <c r="N67" s="28"/>
+      <c r="P67">
         <v>109</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="29">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="27">
         <v>29</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="27">
         <v>211105</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="30">
-        <v>1</v>
-      </c>
-      <c r="F68" s="30">
-        <v>1</v>
-      </c>
-      <c r="G68" s="30">
-        <v>1</v>
-      </c>
-      <c r="H68" s="30">
-        <v>1</v>
-      </c>
-      <c r="I68" s="30">
-        <v>1</v>
-      </c>
-      <c r="J68" s="30">
-        <v>1</v>
-      </c>
-      <c r="K68" s="30">
+      <c r="E68" s="28">
+        <v>1</v>
+      </c>
+      <c r="F68" s="28">
+        <v>1</v>
+      </c>
+      <c r="G68" s="28">
+        <v>1</v>
+      </c>
+      <c r="H68" s="28">
+        <v>1</v>
+      </c>
+      <c r="I68" s="28">
+        <v>1</v>
+      </c>
+      <c r="J68" s="28">
+        <v>1</v>
+      </c>
+      <c r="K68" s="28">
         <v>101</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L68" s="28">
         <v>71</v>
       </c>
-      <c r="M68" s="30"/>
-      <c r="O68">
+      <c r="M68" s="33">
+        <f t="shared" si="0"/>
+        <v>0.70297029702970293</v>
+      </c>
+      <c r="N68" s="28"/>
+      <c r="P68">
         <v>126</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>38</v>
       </c>
-      <c r="Q68" s="22"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="26">
+      <c r="R68" s="20"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="24">
         <v>23</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="24">
         <v>211105</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="28">
-        <v>1</v>
-      </c>
-      <c r="F69" s="28">
-        <v>0</v>
-      </c>
-      <c r="G69" s="28">
-        <v>0</v>
-      </c>
-      <c r="H69" s="28">
-        <v>0</v>
-      </c>
-      <c r="I69" s="28">
-        <v>0</v>
-      </c>
-      <c r="J69" s="28">
-        <v>1</v>
-      </c>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="O69" s="3">
+      <c r="E69" s="26">
+        <v>1</v>
+      </c>
+      <c r="F69" s="26">
+        <v>0</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0</v>
+      </c>
+      <c r="I69" s="26">
+        <v>0</v>
+      </c>
+      <c r="J69" s="26">
+        <v>1</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="36" t="e">
+        <f t="shared" ref="M69:M86" si="1">L69/K69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="26"/>
+      <c r="P69" s="3">
         <v>97</v>
       </c>
-      <c r="P69" s="3">
+      <c r="Q69" s="3">
         <v>33</v>
       </c>
-      <c r="Q69" s="22"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="26">
+      <c r="R69" s="20"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="24">
         <v>23</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="24">
         <v>211105</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="28">
-        <v>1</v>
-      </c>
-      <c r="F70" s="28">
-        <v>0</v>
-      </c>
-      <c r="G70" s="28">
-        <v>0</v>
-      </c>
-      <c r="H70" s="28">
-        <v>0</v>
-      </c>
-      <c r="I70" s="28">
-        <v>0</v>
-      </c>
-      <c r="J70" s="28">
-        <v>1</v>
-      </c>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="O70">
+      <c r="E70" s="26">
+        <v>1</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0</v>
+      </c>
+      <c r="I70" s="26">
+        <v>0</v>
+      </c>
+      <c r="J70" s="26">
+        <v>1</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N70" s="26"/>
+      <c r="P70">
         <v>98</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>41</v>
       </c>
-      <c r="Q70" s="22"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="20"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>21</v>
       </c>
@@ -3720,18 +4068,22 @@
         <v>59</v>
       </c>
       <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O71">
+      <c r="M71" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71">
         <v>99</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>36</v>
       </c>
-      <c r="Q71" s="22"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="20"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>21</v>
       </c>
@@ -3766,192 +4118,218 @@
         <v>109</v>
       </c>
       <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="O72">
+      <c r="M72" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72">
         <v>168</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>55</v>
       </c>
-      <c r="Q72" s="22"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="13">
+      <c r="R72" s="20"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="27">
         <v>29</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="27">
         <v>211107</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="15">
-        <v>1</v>
-      </c>
-      <c r="F73" s="15">
-        <v>1</v>
-      </c>
-      <c r="G73" s="15">
-        <v>0</v>
-      </c>
-      <c r="H73" s="15">
-        <v>0</v>
-      </c>
-      <c r="I73" s="15">
-        <v>0</v>
-      </c>
-      <c r="J73" s="15">
-        <v>0</v>
-      </c>
-      <c r="K73" s="15">
+      <c r="E73" s="28">
+        <v>1</v>
+      </c>
+      <c r="F73" s="28">
+        <v>1</v>
+      </c>
+      <c r="G73" s="28">
+        <v>1</v>
+      </c>
+      <c r="H73" s="28">
+        <v>1</v>
+      </c>
+      <c r="I73" s="28">
+        <v>1</v>
+      </c>
+      <c r="J73" s="28">
+        <v>1</v>
+      </c>
+      <c r="K73" s="28">
         <v>75</v>
       </c>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="O73">
+      <c r="L73" s="28">
+        <v>55</v>
+      </c>
+      <c r="M73" s="33">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N73" s="28"/>
+      <c r="P73">
         <v>139</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>24</v>
       </c>
-      <c r="Q73" s="22"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="13">
+      <c r="R73" s="20"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="27">
         <v>29</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="27">
         <v>211107</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="15">
-        <v>1</v>
-      </c>
-      <c r="F74" s="15">
-        <v>1</v>
-      </c>
-      <c r="G74" s="15">
-        <v>0</v>
-      </c>
-      <c r="H74" s="15">
-        <v>0</v>
-      </c>
-      <c r="I74" s="15">
-        <v>0</v>
-      </c>
-      <c r="J74" s="15">
-        <v>0</v>
-      </c>
-      <c r="K74" s="15">
+      <c r="E74" s="28">
+        <v>1</v>
+      </c>
+      <c r="F74" s="28">
+        <v>1</v>
+      </c>
+      <c r="G74" s="28">
+        <v>1</v>
+      </c>
+      <c r="H74" s="28">
+        <v>1</v>
+      </c>
+      <c r="I74" s="28">
+        <v>1</v>
+      </c>
+      <c r="J74" s="28">
+        <v>1</v>
+      </c>
+      <c r="K74" s="28">
         <v>84</v>
       </c>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="O74">
+      <c r="L74" s="28">
+        <v>66</v>
+      </c>
+      <c r="M74" s="33">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="N74" s="28"/>
+      <c r="P74">
         <v>88</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>49</v>
       </c>
-      <c r="Q74" s="22"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="R74" s="20"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="24">
         <v>23</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="24">
         <v>211107</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="20">
-        <v>0</v>
-      </c>
-      <c r="F75" s="20">
-        <v>0</v>
-      </c>
-      <c r="G75" s="20">
-        <v>0</v>
-      </c>
-      <c r="H75" s="20">
-        <v>0</v>
-      </c>
-      <c r="I75" s="20">
-        <v>0</v>
-      </c>
-      <c r="J75" s="20">
-        <v>1</v>
-      </c>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O75">
+      <c r="E75" s="26">
+        <v>0</v>
+      </c>
+      <c r="F75" s="26">
+        <v>0</v>
+      </c>
+      <c r="G75" s="26">
+        <v>0</v>
+      </c>
+      <c r="H75" s="26">
+        <v>0</v>
+      </c>
+      <c r="I75" s="26">
+        <v>0</v>
+      </c>
+      <c r="J75" s="26">
+        <v>1</v>
+      </c>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P75">
         <v>47</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>29</v>
       </c>
-      <c r="Q75" s="22"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="18">
+      <c r="R75" s="20"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="24">
         <v>23</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="24">
         <v>211107</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="20">
-        <v>0</v>
-      </c>
-      <c r="F76" s="20">
-        <v>0</v>
-      </c>
-      <c r="G76" s="20">
-        <v>0</v>
-      </c>
-      <c r="H76" s="20">
-        <v>0</v>
-      </c>
-      <c r="I76" s="20">
-        <v>0</v>
-      </c>
-      <c r="J76" s="20">
-        <v>1</v>
-      </c>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="O76" s="22">
+      <c r="E76" s="26">
+        <v>0</v>
+      </c>
+      <c r="F76" s="26">
+        <v>0</v>
+      </c>
+      <c r="G76" s="26">
+        <v>0</v>
+      </c>
+      <c r="H76" s="26">
+        <v>0</v>
+      </c>
+      <c r="I76" s="26">
+        <v>0</v>
+      </c>
+      <c r="J76" s="26">
+        <v>1</v>
+      </c>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="P76" s="20">
         <v>98</v>
       </c>
-      <c r="P76" s="22">
+      <c r="Q76" s="20">
         <v>42</v>
       </c>
-      <c r="Q76" s="22"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="20"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>21</v>
       </c>
@@ -3986,16 +4364,20 @@
         <v>166</v>
       </c>
       <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="O77" s="22">
+      <c r="M77" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="15"/>
+      <c r="P77" s="20">
         <v>52</v>
       </c>
-      <c r="P77" s="22">
+      <c r="Q77" s="20">
         <v>47</v>
       </c>
-      <c r="Q77" s="22"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="20"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>21</v>
       </c>
@@ -4030,188 +4412,214 @@
         <v>52</v>
       </c>
       <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="O78" s="22">
+      <c r="M78" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="15"/>
+      <c r="P78" s="20">
         <v>79</v>
       </c>
-      <c r="P78" s="22">
+      <c r="Q78" s="20">
         <v>58</v>
       </c>
-      <c r="Q78" s="22"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="26">
+      <c r="R78" s="20"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="24">
         <v>23</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="24">
         <v>211109</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="28">
-        <v>1</v>
-      </c>
-      <c r="F79" s="28">
-        <v>0</v>
-      </c>
-      <c r="G79" s="28">
-        <v>0</v>
-      </c>
-      <c r="H79" s="28">
-        <v>0</v>
-      </c>
-      <c r="I79" s="28">
-        <v>0</v>
-      </c>
-      <c r="J79" s="28">
-        <v>1</v>
-      </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="O79" s="22">
+      <c r="E79" s="26">
+        <v>1</v>
+      </c>
+      <c r="F79" s="26">
+        <v>0</v>
+      </c>
+      <c r="G79" s="26">
+        <v>0</v>
+      </c>
+      <c r="H79" s="26">
+        <v>0</v>
+      </c>
+      <c r="I79" s="26">
+        <v>0</v>
+      </c>
+      <c r="J79" s="26">
+        <v>1</v>
+      </c>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N79" s="26"/>
+      <c r="P79" s="20">
         <v>60</v>
       </c>
-      <c r="P79" s="22">
+      <c r="Q79" s="20">
         <v>35</v>
       </c>
-      <c r="Q79" s="22"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="26">
+      <c r="R79" s="20"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="24">
         <v>23</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="24">
         <v>211109</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="28">
-        <v>1</v>
-      </c>
-      <c r="F80" s="28">
-        <v>0</v>
-      </c>
-      <c r="G80" s="28">
-        <v>0</v>
-      </c>
-      <c r="H80" s="28">
-        <v>0</v>
-      </c>
-      <c r="I80" s="28">
-        <v>0</v>
-      </c>
-      <c r="J80" s="28">
-        <v>1</v>
-      </c>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="O80" s="22">
+      <c r="E80" s="26">
+        <v>1</v>
+      </c>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="26">
+        <v>0</v>
+      </c>
+      <c r="H80" s="26">
+        <v>0</v>
+      </c>
+      <c r="I80" s="26">
+        <v>0</v>
+      </c>
+      <c r="J80" s="26">
+        <v>1</v>
+      </c>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N80" s="26"/>
+      <c r="P80" s="20">
         <v>38</v>
       </c>
-      <c r="P80" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="22"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="13">
+      <c r="Q80" s="20">
+        <v>0</v>
+      </c>
+      <c r="R80" s="20"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="27">
         <v>29</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="27">
         <v>211111</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="15">
-        <v>1</v>
-      </c>
-      <c r="F81" s="15">
-        <v>0</v>
-      </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
-      <c r="J81" s="15">
-        <v>0</v>
-      </c>
-      <c r="K81" s="15">
+      <c r="E81" s="28">
+        <v>1</v>
+      </c>
+      <c r="F81" s="28">
+        <v>1</v>
+      </c>
+      <c r="G81" s="28">
+        <v>1</v>
+      </c>
+      <c r="H81" s="28">
+        <v>1</v>
+      </c>
+      <c r="I81" s="28">
+        <v>1</v>
+      </c>
+      <c r="J81" s="28">
+        <v>1</v>
+      </c>
+      <c r="K81" s="28">
         <v>140</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="O81" s="22">
+      <c r="L81" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M81" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" s="20">
         <v>79</v>
       </c>
-      <c r="P81" s="22">
+      <c r="Q81" s="20">
         <v>34</v>
       </c>
-      <c r="Q81" s="22"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="13">
+      <c r="R81" s="20"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="27">
         <v>29</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="27">
         <v>211111</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="15">
-        <v>1</v>
-      </c>
-      <c r="F82" s="15">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15">
-        <v>0</v>
-      </c>
-      <c r="K82" s="15">
+      <c r="E82" s="28">
+        <v>1</v>
+      </c>
+      <c r="F82" s="28">
+        <v>1</v>
+      </c>
+      <c r="G82" s="28">
+        <v>1</v>
+      </c>
+      <c r="H82" s="28">
+        <v>1</v>
+      </c>
+      <c r="I82" s="28">
+        <v>1</v>
+      </c>
+      <c r="J82" s="28">
+        <v>1</v>
+      </c>
+      <c r="K82" s="28">
         <v>105</v>
       </c>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="O82" s="22">
+      <c r="L82" s="28">
+        <v>86</v>
+      </c>
+      <c r="M82" s="33">
+        <f t="shared" si="1"/>
+        <v>0.81904761904761902</v>
+      </c>
+      <c r="N82" s="28"/>
+      <c r="P82" s="20">
         <v>62</v>
       </c>
-      <c r="P82" s="22">
+      <c r="Q82" s="20">
         <v>97</v>
       </c>
-      <c r="Q82" s="22"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="20"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>21</v>
       </c>
@@ -4246,18 +4654,22 @@
         <v>19</v>
       </c>
       <c r="L83" s="15"/>
-      <c r="M83" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O83">
+      <c r="M83" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P83">
         <v>79</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>101</v>
       </c>
-      <c r="Q83" s="22"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="20"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>21</v>
       </c>
@@ -4292,16 +4704,20 @@
         <v>39</v>
       </c>
       <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="O84">
+      <c r="M84" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="15"/>
+      <c r="P84">
         <v>59</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>109</v>
       </c>
-      <c r="Q84" s="22"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="20"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>21</v>
       </c>
@@ -4336,18 +4752,22 @@
         <v>102</v>
       </c>
       <c r="L85" s="15"/>
-      <c r="M85" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O85">
+      <c r="M85" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P85">
         <v>75</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>84</v>
       </c>
-      <c r="Q85" s="22"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="20"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>21</v>
       </c>
@@ -4382,16 +4802,20 @@
         <v>49</v>
       </c>
       <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="O86">
+      <c r="M86" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="15"/>
+      <c r="P86">
         <v>166</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>52</v>
       </c>
-      <c r="Q86" s="22"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="20"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>21</v>
       </c>
@@ -4426,18 +4850,22 @@
         <v>136</v>
       </c>
       <c r="L87" s="15"/>
-      <c r="M87" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O87">
+      <c r="M87" s="34">
+        <f>L87/K87</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P87">
         <v>140</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>105</v>
       </c>
-      <c r="Q87" s="22"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="20"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>21</v>
       </c>
@@ -4472,16 +4900,20 @@
         <v>68</v>
       </c>
       <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="O88">
+      <c r="M88" s="34">
+        <f t="shared" ref="M88:M110" si="2">L88/K88</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="15"/>
+      <c r="P88">
         <v>19</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>39</v>
       </c>
-      <c r="Q88" s="22"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="20"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>21</v>
       </c>
@@ -4516,16 +4948,20 @@
         <v>76</v>
       </c>
       <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="O89">
+      <c r="M89" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="15"/>
+      <c r="P89">
         <v>102</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>49</v>
       </c>
-      <c r="Q89" s="22"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="20"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>21</v>
       </c>
@@ -4560,26 +4996,30 @@
         <v>100</v>
       </c>
       <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="O90">
+      <c r="M90" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="15"/>
+      <c r="P90">
         <v>136</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>68</v>
       </c>
-      <c r="Q90" s="22"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="24">
+      <c r="R90" s="20"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="22">
         <v>28</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="22">
         <v>211115</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E91" s="15">
@@ -4604,26 +5044,30 @@
         <v>94</v>
       </c>
       <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="O91">
+      <c r="M91" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="15"/>
+      <c r="P91">
         <v>76</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>100</v>
       </c>
-      <c r="Q91" s="22"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="24">
+      <c r="R91" s="20"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="22">
         <v>28</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="22">
         <v>211115</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="15">
@@ -4648,118 +5092,130 @@
         <v>62</v>
       </c>
       <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="O92">
+      <c r="M92" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="15"/>
+      <c r="P92">
         <v>94</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>62</v>
       </c>
-      <c r="Q92" s="22"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="31">
+      <c r="R92" s="20"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="29">
         <v>28</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="29">
         <v>211116</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="30">
-        <v>1</v>
-      </c>
-      <c r="F93" s="30">
-        <v>1</v>
-      </c>
-      <c r="G93" s="30">
-        <v>1</v>
-      </c>
-      <c r="H93" s="30">
-        <v>1</v>
-      </c>
-      <c r="I93" s="30">
-        <v>1</v>
-      </c>
-      <c r="J93" s="30">
-        <v>1</v>
-      </c>
-      <c r="K93" s="30">
+      <c r="E93" s="28">
+        <v>1</v>
+      </c>
+      <c r="F93" s="28">
+        <v>1</v>
+      </c>
+      <c r="G93" s="28">
+        <v>1</v>
+      </c>
+      <c r="H93" s="28">
+        <v>1</v>
+      </c>
+      <c r="I93" s="28">
+        <v>1</v>
+      </c>
+      <c r="J93" s="28">
+        <v>1</v>
+      </c>
+      <c r="K93" s="28">
         <v>126</v>
       </c>
-      <c r="L93" s="30">
+      <c r="L93" s="28">
         <v>93</v>
       </c>
-      <c r="M93" s="30"/>
-      <c r="O93">
+      <c r="M93" s="33">
+        <f t="shared" si="2"/>
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="N93" s="28"/>
+      <c r="P93">
         <v>126</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>64</v>
       </c>
-      <c r="Q93" s="22"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="31">
+      <c r="R93" s="20"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="29">
         <v>28</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="29">
         <v>211116</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="30">
-        <v>1</v>
-      </c>
-      <c r="F94" s="30">
-        <v>1</v>
-      </c>
-      <c r="G94" s="30">
-        <v>1</v>
-      </c>
-      <c r="H94" s="30">
-        <v>1</v>
-      </c>
-      <c r="I94" s="30">
-        <v>1</v>
-      </c>
-      <c r="J94" s="30">
-        <v>1</v>
-      </c>
-      <c r="K94" s="30">
+      <c r="E94" s="28">
+        <v>1</v>
+      </c>
+      <c r="F94" s="28">
+        <v>1</v>
+      </c>
+      <c r="G94" s="28">
+        <v>1</v>
+      </c>
+      <c r="H94" s="28">
+        <v>1</v>
+      </c>
+      <c r="I94" s="28">
+        <v>1</v>
+      </c>
+      <c r="J94" s="28">
+        <v>1</v>
+      </c>
+      <c r="K94" s="28">
         <v>64</v>
       </c>
-      <c r="L94" s="30">
+      <c r="L94" s="28">
         <v>51</v>
       </c>
-      <c r="M94" s="30"/>
-      <c r="O94">
+      <c r="M94" s="33">
+        <f t="shared" si="2"/>
+        <v>0.796875</v>
+      </c>
+      <c r="N94" s="28"/>
+      <c r="P94">
         <v>78</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>84</v>
       </c>
-      <c r="Q94" s="22"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="24">
+      <c r="R94" s="20"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="22">
         <v>29</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="22">
         <v>211116</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="15">
@@ -4784,26 +5240,32 @@
         <v>78</v>
       </c>
       <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="O95">
+      <c r="M95" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95">
         <v>88</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>131</v>
       </c>
-      <c r="Q95" s="22"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="24">
+      <c r="R95" s="20"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="22">
         <v>29</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="22">
         <v>211116</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="15">
@@ -4828,129 +5290,143 @@
         <v>84</v>
       </c>
       <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="O96">
+      <c r="M96" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P96">
         <v>98</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>68</v>
       </c>
-      <c r="Q96" s="22"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="31">
+      <c r="R96" s="20"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="29">
         <v>28</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="29">
         <v>211117</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="30">
-        <v>1</v>
-      </c>
-      <c r="F97" s="30">
-        <v>0</v>
-      </c>
-      <c r="G97" s="30">
-        <v>0</v>
-      </c>
-      <c r="H97" s="30">
-        <v>0</v>
-      </c>
-      <c r="I97" s="30">
-        <v>0</v>
-      </c>
-      <c r="J97" s="30">
-        <v>1</v>
-      </c>
-      <c r="K97" s="30">
+      <c r="E97" s="28">
+        <v>1</v>
+      </c>
+      <c r="F97" s="28">
+        <v>0</v>
+      </c>
+      <c r="G97" s="28">
+        <v>0</v>
+      </c>
+      <c r="H97" s="28">
+        <v>0</v>
+      </c>
+      <c r="I97" s="28">
+        <v>0</v>
+      </c>
+      <c r="J97" s="28">
+        <v>1</v>
+      </c>
+      <c r="K97" s="28">
         <v>88</v>
       </c>
-      <c r="L97" s="30">
+      <c r="L97" s="28">
         <v>69</v>
       </c>
-      <c r="M97" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="O97">
+      <c r="M97" s="33">
+        <f t="shared" si="2"/>
+        <v>0.78409090909090906</v>
+      </c>
+      <c r="N97" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P97">
         <v>127</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="31">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="29">
         <v>28</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="29">
         <v>211117</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="30">
-        <v>1</v>
-      </c>
-      <c r="F98" s="30">
-        <v>0</v>
-      </c>
-      <c r="G98" s="30">
-        <v>0</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
-      </c>
-      <c r="I98" s="30">
-        <v>0</v>
-      </c>
-      <c r="J98" s="30">
-        <v>1</v>
-      </c>
-      <c r="K98" s="30">
+      <c r="E98" s="28">
+        <v>1</v>
+      </c>
+      <c r="F98" s="28">
+        <v>0</v>
+      </c>
+      <c r="G98" s="28">
+        <v>0</v>
+      </c>
+      <c r="H98" s="28">
+        <v>0</v>
+      </c>
+      <c r="I98" s="28">
+        <v>0</v>
+      </c>
+      <c r="J98" s="28">
+        <v>1</v>
+      </c>
+      <c r="K98" s="28">
         <v>131</v>
       </c>
-      <c r="L98" s="30">
+      <c r="L98" s="28">
         <v>85</v>
       </c>
-      <c r="M98" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="O98">
-        <f>SUM(O53:O97)</f>
-        <v>3974</v>
+      <c r="M98" s="33">
+        <f t="shared" si="2"/>
+        <v>0.64885496183206104</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="P98">
         <f>SUM(P53:P97)</f>
+        <v>3974</v>
+      </c>
+      <c r="Q98">
+        <f>SUM(Q53:Q97)</f>
         <v>2194</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="24">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="22">
         <v>28</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="22">
         <v>211118</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="15">
         <v>1</v>
       </c>
       <c r="F99" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="15">
         <v>0</v>
@@ -4968,37 +5444,43 @@
         <v>98</v>
       </c>
       <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="25">
+      <c r="M99" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O99" s="23">
         <v>0.7</v>
-      </c>
-      <c r="O99">
-        <f>0.7*O98</f>
-        <v>2781.7999999999997</v>
       </c>
       <c r="P99">
         <f>0.7*P98</f>
+        <v>2781.7999999999997</v>
+      </c>
+      <c r="Q99">
+        <f>0.7*Q98</f>
         <v>1535.8</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="24">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="22">
         <v>28</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="22">
         <v>211118</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="15">
         <v>1</v>
       </c>
       <c r="F100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="15">
         <v>0</v>
@@ -5016,30 +5498,36 @@
         <v>68</v>
       </c>
       <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="25">
+      <c r="M100" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O100" s="23">
         <v>0.6</v>
-      </c>
-      <c r="O100">
-        <f>0.6*O98</f>
-        <v>2384.4</v>
       </c>
       <c r="P100">
         <f>0.6*P98</f>
+        <v>2384.4</v>
+      </c>
+      <c r="Q100">
+        <f>0.6*Q98</f>
         <v>1316.3999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="24">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="22">
         <v>29</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="22">
         <v>211118</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="15">
@@ -5063,18 +5551,24 @@
       <c r="K101" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="24">
+      <c r="L101" s="15"/>
+      <c r="M101" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="15"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="22">
         <v>29</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="22">
         <v>211118</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="15">
@@ -5098,543 +5592,658 @@
       <c r="K102" s="15">
         <v>67</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="21">
+      <c r="L102" s="15"/>
+      <c r="M102" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="15"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="38">
         <v>28</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="38">
         <v>211119</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="22">
-        <v>0</v>
-      </c>
-      <c r="F103" s="21">
-        <v>0</v>
-      </c>
-      <c r="G103" s="21">
-        <v>0</v>
-      </c>
-      <c r="H103" s="21">
-        <v>0</v>
-      </c>
-      <c r="I103" s="21">
-        <v>0</v>
-      </c>
-      <c r="J103" s="21">
-        <v>0</v>
-      </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="21">
+      <c r="E103" s="18">
+        <v>0</v>
+      </c>
+      <c r="F103" s="38">
+        <v>0</v>
+      </c>
+      <c r="G103" s="38">
+        <v>0</v>
+      </c>
+      <c r="H103" s="38">
+        <v>0</v>
+      </c>
+      <c r="I103" s="38">
+        <v>0</v>
+      </c>
+      <c r="J103" s="38">
+        <v>0</v>
+      </c>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="38">
         <v>28</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="38">
         <v>211119</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="22">
-        <v>0</v>
-      </c>
-      <c r="F104" s="21">
-        <v>0</v>
-      </c>
-      <c r="G104" s="21">
-        <v>0</v>
-      </c>
-      <c r="H104" s="21">
-        <v>0</v>
-      </c>
-      <c r="I104" s="21">
-        <v>0</v>
-      </c>
-      <c r="J104" s="21">
-        <v>0</v>
-      </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="21">
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
+      <c r="F104" s="38">
+        <v>0</v>
+      </c>
+      <c r="G104" s="38">
+        <v>0</v>
+      </c>
+      <c r="H104" s="38">
+        <v>0</v>
+      </c>
+      <c r="I104" s="38">
+        <v>0</v>
+      </c>
+      <c r="J104" s="38">
+        <v>0</v>
+      </c>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N104" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="22">
         <v>29</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="22">
         <v>211119</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="22">
-        <v>0</v>
-      </c>
-      <c r="F105" s="21">
-        <v>0</v>
-      </c>
-      <c r="G105" s="21">
-        <v>0</v>
-      </c>
-      <c r="H105" s="21">
-        <v>0</v>
-      </c>
-      <c r="I105" s="21">
-        <v>0</v>
-      </c>
-      <c r="J105" s="21">
-        <v>0</v>
-      </c>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="21">
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>0</v>
+      </c>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N105" s="15"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="22">
         <v>29</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="22">
         <v>211119</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="22">
-        <v>0</v>
-      </c>
-      <c r="F106" s="21">
-        <v>0</v>
-      </c>
-      <c r="G106" s="21">
-        <v>0</v>
-      </c>
-      <c r="H106" s="21">
-        <v>0</v>
-      </c>
-      <c r="I106" s="21">
-        <v>0</v>
-      </c>
-      <c r="J106" s="21">
-        <v>0</v>
-      </c>
-      <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="21">
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>0</v>
+      </c>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N106" s="15"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="22">
         <v>28</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="22">
         <v>211120</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E107" s="22">
-        <v>0</v>
-      </c>
-      <c r="F107" s="21">
-        <v>0</v>
-      </c>
-      <c r="G107" s="21">
-        <v>0</v>
-      </c>
-      <c r="H107" s="21">
-        <v>0</v>
-      </c>
-      <c r="I107" s="21">
-        <v>0</v>
-      </c>
-      <c r="J107" s="21">
-        <v>0</v>
-      </c>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="21">
+      <c r="E107" s="15">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>0</v>
+      </c>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N107" s="15"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="22">
         <v>28</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="22">
         <v>211120</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="22">
-        <v>0</v>
-      </c>
-      <c r="F108" s="21">
-        <v>0</v>
-      </c>
-      <c r="G108" s="21">
-        <v>0</v>
-      </c>
-      <c r="H108" s="21">
-        <v>0</v>
-      </c>
-      <c r="I108" s="21">
-        <v>0</v>
-      </c>
-      <c r="J108" s="21">
-        <v>0</v>
-      </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="21">
+      <c r="E108" s="15">
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>0</v>
+      </c>
+      <c r="I108" s="22">
+        <v>0</v>
+      </c>
+      <c r="J108" s="22">
+        <v>0</v>
+      </c>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N108" s="15"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="22">
         <v>28</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="22">
         <v>211121</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="22">
-        <v>0</v>
-      </c>
-      <c r="F109" s="21">
-        <v>0</v>
-      </c>
-      <c r="G109" s="21">
-        <v>0</v>
-      </c>
-      <c r="H109" s="21">
-        <v>0</v>
-      </c>
-      <c r="I109" s="21">
-        <v>0</v>
-      </c>
-      <c r="J109" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" s="21">
+      <c r="E109" s="15">
+        <v>0</v>
+      </c>
+      <c r="F109" s="22">
+        <v>0</v>
+      </c>
+      <c r="G109" s="22">
+        <v>0</v>
+      </c>
+      <c r="H109" s="22">
+        <v>0</v>
+      </c>
+      <c r="I109" s="22">
+        <v>0</v>
+      </c>
+      <c r="J109" s="22">
+        <v>0</v>
+      </c>
+      <c r="K109" s="15">
+        <v>74</v>
+      </c>
+      <c r="L109" s="15"/>
+      <c r="M109" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="15"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="22">
         <v>28</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="22">
         <v>211121</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="22">
-        <v>0</v>
-      </c>
-      <c r="F110" s="21">
-        <v>0</v>
-      </c>
-      <c r="G110" s="21">
-        <v>0</v>
-      </c>
-      <c r="H110" s="21">
-        <v>0</v>
-      </c>
-      <c r="I110" s="21">
-        <v>0</v>
-      </c>
-      <c r="J110" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="21">
+      <c r="E110" s="15">
+        <v>0</v>
+      </c>
+      <c r="F110" s="22">
+        <v>0</v>
+      </c>
+      <c r="G110" s="22">
+        <v>0</v>
+      </c>
+      <c r="H110" s="22">
+        <v>0</v>
+      </c>
+      <c r="I110" s="22">
+        <v>0</v>
+      </c>
+      <c r="J110" s="22">
+        <v>0</v>
+      </c>
+      <c r="K110" s="15">
+        <v>67</v>
+      </c>
+      <c r="L110" s="15"/>
+      <c r="M110" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="15"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="22">
         <v>28</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="22">
         <v>211122</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="22">
-        <v>0</v>
-      </c>
-      <c r="F111" s="21">
-        <v>0</v>
-      </c>
-      <c r="G111" s="21">
-        <v>0</v>
-      </c>
-      <c r="H111" s="21">
-        <v>0</v>
-      </c>
-      <c r="I111" s="21">
-        <v>0</v>
-      </c>
-      <c r="J111" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="21">
+      <c r="E111" s="15">
+        <v>0</v>
+      </c>
+      <c r="F111" s="22">
+        <v>0</v>
+      </c>
+      <c r="G111" s="22">
+        <v>0</v>
+      </c>
+      <c r="H111" s="22">
+        <v>0</v>
+      </c>
+      <c r="I111" s="22">
+        <v>0</v>
+      </c>
+      <c r="J111" s="22">
+        <v>0</v>
+      </c>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="37" t="e">
+        <f>L111/K111</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N111" s="15"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="22">
         <v>28</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="22">
         <v>211122</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="22">
-        <v>0</v>
-      </c>
-      <c r="F112" s="21">
-        <v>0</v>
-      </c>
-      <c r="G112" s="21">
-        <v>0</v>
-      </c>
-      <c r="H112" s="21">
-        <v>0</v>
-      </c>
-      <c r="I112" s="21">
-        <v>0</v>
-      </c>
-      <c r="J112" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="21">
+      <c r="E112" s="15">
+        <v>0</v>
+      </c>
+      <c r="F112" s="22">
+        <v>0</v>
+      </c>
+      <c r="G112" s="22">
+        <v>0</v>
+      </c>
+      <c r="H112" s="22">
+        <v>0</v>
+      </c>
+      <c r="I112" s="22">
+        <v>0</v>
+      </c>
+      <c r="J112" s="22">
+        <v>0</v>
+      </c>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="37" t="e">
+        <f t="shared" ref="M112:M118" si="3">L112/K112</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N112" s="15"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="22">
         <v>29</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="22">
         <v>211122</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="22">
-        <v>0</v>
-      </c>
-      <c r="F113" s="21">
-        <v>0</v>
-      </c>
-      <c r="G113" s="21">
-        <v>0</v>
-      </c>
-      <c r="H113" s="21">
-        <v>0</v>
-      </c>
-      <c r="I113" s="21">
-        <v>0</v>
-      </c>
-      <c r="J113" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="21">
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+      <c r="F113" s="22">
+        <v>0</v>
+      </c>
+      <c r="G113" s="22">
+        <v>0</v>
+      </c>
+      <c r="H113" s="22">
+        <v>0</v>
+      </c>
+      <c r="I113" s="22">
+        <v>0</v>
+      </c>
+      <c r="J113" s="22">
+        <v>0</v>
+      </c>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N113" s="15"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="22">
         <v>29</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="22">
         <v>211122</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="22">
-        <v>0</v>
-      </c>
-      <c r="F114" s="21">
-        <v>0</v>
-      </c>
-      <c r="G114" s="21">
-        <v>0</v>
-      </c>
-      <c r="H114" s="21">
-        <v>0</v>
-      </c>
-      <c r="I114" s="21">
-        <v>0</v>
-      </c>
-      <c r="J114" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" s="21">
+      <c r="E114" s="15">
+        <v>1</v>
+      </c>
+      <c r="F114" s="22">
+        <v>0</v>
+      </c>
+      <c r="G114" s="22">
+        <v>0</v>
+      </c>
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
+      <c r="J114" s="22">
+        <v>0</v>
+      </c>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N114" s="15"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="22">
         <v>28</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="22">
         <v>211123</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="22">
-        <v>0</v>
-      </c>
-      <c r="F115" s="21">
-        <v>0</v>
-      </c>
-      <c r="G115" s="21">
-        <v>0</v>
-      </c>
-      <c r="H115" s="21">
-        <v>0</v>
-      </c>
-      <c r="I115" s="21">
-        <v>0</v>
-      </c>
-      <c r="J115" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="21">
+      <c r="E115" s="15">
+        <v>0</v>
+      </c>
+      <c r="F115" s="22">
+        <v>0</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22">
+        <v>0</v>
+      </c>
+      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="J115" s="22">
+        <v>0</v>
+      </c>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N115" s="15"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="22">
         <v>28</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="22">
         <v>211123</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="22">
-        <v>0</v>
-      </c>
-      <c r="F116" s="21">
-        <v>0</v>
-      </c>
-      <c r="G116" s="21">
-        <v>0</v>
-      </c>
-      <c r="H116" s="21">
-        <v>0</v>
-      </c>
-      <c r="I116" s="21">
-        <v>0</v>
-      </c>
-      <c r="J116" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="21">
+      <c r="E116" s="15">
+        <v>0</v>
+      </c>
+      <c r="F116" s="22">
+        <v>0</v>
+      </c>
+      <c r="G116" s="22">
+        <v>0</v>
+      </c>
+      <c r="H116" s="22">
+        <v>0</v>
+      </c>
+      <c r="I116" s="22">
+        <v>0</v>
+      </c>
+      <c r="J116" s="22">
+        <v>0</v>
+      </c>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N116" s="15"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="22">
         <v>29</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="22">
         <v>211123</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="22">
-        <v>0</v>
-      </c>
-      <c r="F117" s="21">
-        <v>0</v>
-      </c>
-      <c r="G117" s="21">
-        <v>0</v>
-      </c>
-      <c r="H117" s="21">
-        <v>0</v>
-      </c>
-      <c r="I117" s="21">
-        <v>0</v>
-      </c>
-      <c r="J117" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="21">
+      <c r="E117" s="15">
+        <v>1</v>
+      </c>
+      <c r="F117" s="22">
+        <v>0</v>
+      </c>
+      <c r="G117" s="22">
+        <v>0</v>
+      </c>
+      <c r="H117" s="22">
+        <v>0</v>
+      </c>
+      <c r="I117" s="22">
+        <v>0</v>
+      </c>
+      <c r="J117" s="22">
+        <v>0</v>
+      </c>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N117" s="15"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="22">
         <v>29</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="22">
         <v>211123</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E118" s="22">
-        <v>0</v>
-      </c>
-      <c r="F118" s="21">
-        <v>0</v>
-      </c>
-      <c r="G118" s="21">
-        <v>0</v>
-      </c>
-      <c r="H118" s="21">
-        <v>0</v>
-      </c>
-      <c r="I118" s="21">
-        <v>0</v>
-      </c>
-      <c r="J118" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+      <c r="E118" s="15">
+        <v>1</v>
+      </c>
+      <c r="F118" s="22">
+        <v>0</v>
+      </c>
+      <c r="G118" s="22">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22">
+        <v>0</v>
+      </c>
+      <c r="I118" s="22">
+        <v>0</v>
+      </c>
+      <c r="J118" s="22">
+        <v>0</v>
+      </c>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N118" s="15"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
       <c r="I119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J119">
         <f>ROWS(J3:J118)-SUM(J3:J118)</f>
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M119" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Teema downloaded</t>
+  </si>
+  <si>
+    <t>a messy/very split up recording but ok</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +441,7 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1116,45 +1120,49 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>210409</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
         <v>58</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="34">
+      <c r="L8" s="16">
+        <v>41</v>
+      </c>
+      <c r="M8" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
+        <v>0.7068965517241379</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" t="s">
         <v>29</v>
@@ -1210,45 +1218,47 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>210410</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
         <v>56</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="34">
+      <c r="L10" s="16">
+        <v>35</v>
+      </c>
+      <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="s">
+        <v>0.625</v>
+      </c>
+      <c r="N10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="P10" s="20"/>
@@ -1390,7 +1400,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -1434,99 +1446,101 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="16">
         <v>210414</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
         <v>67</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="34">
+      <c r="L15" s="16">
+        <v>38</v>
+      </c>
+      <c r="M15" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>0.56716417910447758</v>
+      </c>
+      <c r="N15" s="16"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="16">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="16">
         <v>210414</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
         <v>13</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="34">
+      <c r="L16" s="16">
+        <v>12</v>
+      </c>
+      <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="N16" s="16"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -1632,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -1654,7 +1668,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1977,45 +1993,47 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="A27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="16">
         <v>20</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="16">
         <v>210513</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
         <v>66</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="34">
+      <c r="L27" s="16">
+        <v>42</v>
+      </c>
+      <c r="M27" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2899,172 +2917,176 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="A47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="16">
         <v>25</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="17">
         <v>210908</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="E47" s="16">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+      <c r="H47" s="16">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16">
+        <v>1</v>
+      </c>
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
+      <c r="K47" s="16">
         <v>88</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="34">
+      <c r="L47" s="16">
+        <v>69</v>
+      </c>
+      <c r="M47" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>0.78409090909090906</v>
+      </c>
+      <c r="N47" s="16"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="A48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="16">
         <v>25</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="17">
         <v>210908</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16">
+        <v>1</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1</v>
+      </c>
+      <c r="J48" s="16">
+        <v>1</v>
+      </c>
+      <c r="K48" s="16">
         <v>49</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="34">
+      <c r="L48" s="16">
+        <v>32</v>
+      </c>
+      <c r="M48" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>0.65306122448979587</v>
+      </c>
+      <c r="N48" s="16"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="4">
+      <c r="A49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="16">
         <v>25</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="17">
         <v>210909</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
+      <c r="E49" s="16">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16">
+        <v>1</v>
+      </c>
+      <c r="J49" s="16">
+        <v>1</v>
+      </c>
+      <c r="K49" s="16">
         <v>47</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="34">
+      <c r="L49" s="16">
+        <v>38</v>
+      </c>
+      <c r="M49" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="4"/>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="A50" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="16">
         <v>25</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="17">
         <v>210909</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="E50" s="16">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16">
+        <v>1</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1</v>
+      </c>
+      <c r="J50" s="16">
+        <v>1</v>
+      </c>
+      <c r="K50" s="16">
         <v>29</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="34">
+      <c r="L50" s="16">
+        <v>19</v>
+      </c>
+      <c r="M50" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="4"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="N50" s="16"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -5222,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="15">
         <v>0</v>
@@ -5322,16 +5344,16 @@
         <v>1</v>
       </c>
       <c r="F97" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" s="28">
         <v>1</v>
@@ -5373,16 +5395,16 @@
         <v>1</v>
       </c>
       <c r="F98" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="28">
         <v>1</v>
@@ -5410,45 +5432,47 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="22">
+      <c r="A99" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="29">
         <v>28</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="29">
         <v>211118</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="15">
-        <v>1</v>
-      </c>
-      <c r="F99" s="15">
-        <v>1</v>
-      </c>
-      <c r="G99" s="15">
-        <v>0</v>
-      </c>
-      <c r="H99" s="15">
-        <v>0</v>
-      </c>
-      <c r="I99" s="15">
-        <v>0</v>
-      </c>
-      <c r="J99" s="15">
-        <v>0</v>
-      </c>
-      <c r="K99" s="15">
+      <c r="E99" s="28">
+        <v>1</v>
+      </c>
+      <c r="F99" s="28">
+        <v>1</v>
+      </c>
+      <c r="G99" s="28">
+        <v>1</v>
+      </c>
+      <c r="H99" s="28">
+        <v>1</v>
+      </c>
+      <c r="I99" s="28">
+        <v>1</v>
+      </c>
+      <c r="J99" s="28">
+        <v>1</v>
+      </c>
+      <c r="K99" s="28">
         <v>98</v>
       </c>
-      <c r="L99" s="15"/>
-      <c r="M99" s="34">
+      <c r="L99" s="28">
+        <v>63</v>
+      </c>
+      <c r="M99" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="15" t="s">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="N99" s="28" t="s">
         <v>66</v>
       </c>
       <c r="O99" s="23">
@@ -5464,45 +5488,47 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="22">
+      <c r="A100" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="29">
         <v>28</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="29">
         <v>211118</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="15">
-        <v>1</v>
-      </c>
-      <c r="F100" s="15">
-        <v>1</v>
-      </c>
-      <c r="G100" s="15">
-        <v>0</v>
-      </c>
-      <c r="H100" s="15">
-        <v>0</v>
-      </c>
-      <c r="I100" s="15">
-        <v>0</v>
-      </c>
-      <c r="J100" s="15">
-        <v>0</v>
-      </c>
-      <c r="K100" s="15">
+      <c r="E100" s="28">
+        <v>1</v>
+      </c>
+      <c r="F100" s="28">
+        <v>1</v>
+      </c>
+      <c r="G100" s="28">
+        <v>1</v>
+      </c>
+      <c r="H100" s="28">
+        <v>1</v>
+      </c>
+      <c r="I100" s="28">
+        <v>1</v>
+      </c>
+      <c r="J100" s="28">
+        <v>1</v>
+      </c>
+      <c r="K100" s="28">
         <v>68</v>
       </c>
-      <c r="L100" s="15"/>
-      <c r="M100" s="34">
+      <c r="L100" s="28">
+        <v>47</v>
+      </c>
+      <c r="M100" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="15" t="s">
+        <v>0.69117647058823528</v>
+      </c>
+      <c r="N100" s="28" t="s">
         <v>67</v>
       </c>
       <c r="O100" s="23">
@@ -5556,7 +5582,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N101" s="15"/>
+      <c r="N101" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
@@ -5597,7 +5625,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N102" s="15"/>
+      <c r="N102" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
@@ -5760,82 +5790,94 @@
       <c r="N106" s="15"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="22">
+      <c r="A107" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="29">
         <v>28</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="29">
         <v>211120</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E107" s="15">
-        <v>0</v>
-      </c>
-      <c r="F107" s="22">
-        <v>0</v>
-      </c>
-      <c r="G107" s="22">
-        <v>0</v>
-      </c>
-      <c r="H107" s="22">
-        <v>0</v>
-      </c>
-      <c r="I107" s="22">
-        <v>0</v>
-      </c>
-      <c r="J107" s="22">
-        <v>0</v>
-      </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="37" t="e">
+      <c r="E107" s="28">
+        <v>1</v>
+      </c>
+      <c r="F107" s="29">
+        <v>1</v>
+      </c>
+      <c r="G107" s="29">
+        <v>1</v>
+      </c>
+      <c r="H107" s="29">
+        <v>1</v>
+      </c>
+      <c r="I107" s="29">
+        <v>1</v>
+      </c>
+      <c r="J107" s="29">
+        <v>1</v>
+      </c>
+      <c r="K107" s="28">
+        <v>72</v>
+      </c>
+      <c r="L107" s="28">
+        <v>48</v>
+      </c>
+      <c r="M107" s="40">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N107" s="15"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N107" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="22">
+      <c r="A108" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="29">
         <v>28</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="29">
         <v>211120</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="15">
-        <v>0</v>
-      </c>
-      <c r="F108" s="22">
-        <v>0</v>
-      </c>
-      <c r="G108" s="22">
-        <v>0</v>
-      </c>
-      <c r="H108" s="22">
-        <v>0</v>
-      </c>
-      <c r="I108" s="22">
-        <v>0</v>
-      </c>
-      <c r="J108" s="22">
-        <v>0</v>
-      </c>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="37" t="e">
+      <c r="E108" s="28">
+        <v>1</v>
+      </c>
+      <c r="F108" s="29">
+        <v>1</v>
+      </c>
+      <c r="G108" s="29">
+        <v>1</v>
+      </c>
+      <c r="H108" s="29">
+        <v>1</v>
+      </c>
+      <c r="I108" s="29">
+        <v>1</v>
+      </c>
+      <c r="J108" s="29">
+        <v>1</v>
+      </c>
+      <c r="K108" s="28">
+        <v>67</v>
+      </c>
+      <c r="L108" s="28">
+        <v>52</v>
+      </c>
+      <c r="M108" s="40">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N108" s="15"/>
+        <v>0.77611940298507465</v>
+      </c>
+      <c r="N108" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
@@ -5851,7 +5893,7 @@
         <v>22</v>
       </c>
       <c r="E109" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="22">
         <v>0</v>
@@ -5892,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="E110" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="22">
         <v>0</v>
@@ -5933,7 +5975,7 @@
         <v>22</v>
       </c>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="22">
         <v>0</v>
@@ -5972,7 +6014,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="22">
         <v>0</v>
@@ -6089,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="E115" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="22">
         <v>0</v>
@@ -6128,7 +6170,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="22">
         <v>0</v>
@@ -6241,7 +6283,7 @@
       </c>
       <c r="J119">
         <f>ROWS(J3:J118)-SUM(J3:J118)</f>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="M119" s="35"/>
     </row>

--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\singer\Steph\Code\update-project\docs\metadata-summaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/singer/Steph/Code/update-project/docs/metadata-summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EF98A-DE9A-D245-9958-3503E806A2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1155" windowWidth="24225" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="4580" yWindow="460" windowWidth="24220" windowHeight="16620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -141,51 +143,9 @@
     <t>error = Unrecognized function or variable 'W', experiment notes say no spikes</t>
   </si>
   <si>
-    <t>total S17 recordings</t>
-  </si>
-  <si>
-    <t>total S20 recordings</t>
-  </si>
-  <si>
-    <t>total S25 recordings</t>
-  </si>
-  <si>
-    <t>total recording sessions from 3 mice</t>
-  </si>
-  <si>
-    <t>51+62+94+106+67+100+83+72+78+94+66+68+53+109+126+97+98+99+168+139+88+47+98+52+79+60+38+79</t>
-  </si>
-  <si>
-    <t>units from HPC each session</t>
-  </si>
-  <si>
-    <t>total units from HPC uncurated</t>
-  </si>
-  <si>
-    <t>total estimated good HPC units at 70% pass</t>
-  </si>
-  <si>
-    <t>total estimated good HPC units at 60% pass</t>
-  </si>
-  <si>
     <t>cut out L&amp;N noise for some of them</t>
   </si>
   <si>
-    <t>58+56+68+11+13+22+0+8+0+0+0+2+88+67+38+33+41+36+55+24+49+29+42+47+58+35+0+34</t>
-  </si>
-  <si>
-    <t>units from PFC each session</t>
-  </si>
-  <si>
-    <t>total units from PFC uncurated</t>
-  </si>
-  <si>
-    <t>total estimated good PFC units at 70% pass</t>
-  </si>
-  <si>
-    <t>total estimated good PFC units at 60% pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">maybe a little more unstable than usual? </t>
   </si>
   <si>
@@ -376,12 +336,21 @@
   </si>
   <si>
     <t>not confident in hippocampal location, lots of clusters under 100 spikes, nots of noisey ones, but also a good bit of clean looking clusters, one got excluded in post curation</t>
+  </si>
+  <si>
+    <t>HPC units</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Initial units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -893,34 +862,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N88" sqref="A87:N88"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="25" customWidth="1"/>
-    <col min="14" max="14" width="79.125" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="79.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
     <col min="16" max="1026" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,14 +927,14 @@
         <v>11</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +976,11 @@
         <v>20</v>
       </c>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
@@ -1095,14 +1067,14 @@
         <v>0.75</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
@@ -1144,14 +1116,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O5" s="34"/>
       <c r="P5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -1193,14 +1165,14 @@
         <v>0.74358974358974361</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1287,14 +1259,14 @@
         <v>0.7068965517241379</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1336,14 +1308,14 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1385,13 +1357,13 @@
         <v>0.625</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1433,13 +1405,13 @@
         <v>0.72340425531914898</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1481,13 +1453,13 @@
         <v>0.5</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1529,13 +1501,13 @@
         <v>0.65094339622641506</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1577,13 +1549,13 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +1601,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1647,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1691,7 @@
       <c r="N17" s="10"/>
       <c r="R17" s="14"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1735,7 @@
       <c r="N18" s="10"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1805,11 +1777,11 @@
         <v>0.71084337349397586</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1827,7 @@
       </c>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +1871,7 @@
       <c r="N21" s="6"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1915,7 @@
       <c r="N22" s="6"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1989,7 +1961,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2037,7 +2009,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2057,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2145,7 @@
       </c>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2218,7 +2190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2233,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +2276,7 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>21</v>
       </c>
@@ -2346,14 +2318,9 @@
         <v>0.71698113207547165</v>
       </c>
       <c r="N31" s="10"/>
-      <c r="O31" s="5">
-        <v>8</v>
-      </c>
-      <c r="P31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
@@ -2395,14 +2362,9 @@
         <v>0.88636363636363635</v>
       </c>
       <c r="N32" s="10"/>
-      <c r="O32" s="7">
-        <v>12</v>
-      </c>
-      <c r="P32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
@@ -2444,14 +2406,9 @@
         <v>0.73394495412844041</v>
       </c>
       <c r="N33" s="10"/>
-      <c r="O33" s="5">
-        <v>10</v>
-      </c>
-      <c r="P33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>21</v>
       </c>
@@ -2493,14 +2450,9 @@
         <v>0.85074626865671643</v>
       </c>
       <c r="N34" s="10"/>
-      <c r="O34" s="7">
-        <v>30</v>
-      </c>
-      <c r="P34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
@@ -2542,10 +2494,10 @@
         <v>0.59523809523809523</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -2587,16 +2539,11 @@
         <v>0.86842105263157898</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>21</v>
       </c>
@@ -2638,16 +2585,10 @@
         <v>0.74226804123711343</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37">
-        <v>2371</v>
-      </c>
-      <c r="P37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>21</v>
       </c>
@@ -2689,17 +2630,10 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O38">
-        <f>O37*0.7</f>
-        <v>1659.6999999999998</v>
-      </c>
-      <c r="P38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>21</v>
       </c>
@@ -2741,17 +2675,10 @@
         <v>0.80612244897959184</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O39">
-        <f>O37*0.6</f>
-        <v>1422.6</v>
-      </c>
-      <c r="P39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
@@ -2793,10 +2720,10 @@
         <v>0.90243902439024393</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>21</v>
       </c>
@@ -2838,10 +2765,10 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -2883,10 +2810,10 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
@@ -2928,16 +2855,11 @@
         <v>0.67261904761904767</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -2979,14 +2901,8 @@
         <v>0.70909090909090911</v>
       </c>
       <c r="N44" s="6"/>
-      <c r="O44">
-        <v>914</v>
-      </c>
-      <c r="P44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>21</v>
       </c>
@@ -3028,15 +2944,8 @@
         <v>0.65467625899280579</v>
       </c>
       <c r="N45" s="10"/>
-      <c r="O45">
-        <f>O44*0.7</f>
-        <v>639.79999999999995</v>
-      </c>
-      <c r="P45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>21</v>
       </c>
@@ -3078,15 +2987,8 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="N46" s="10"/>
-      <c r="O46">
-        <f>O44*0.6</f>
-        <v>548.4</v>
-      </c>
-      <c r="P46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3031,7 @@
       </c>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>21</v>
       </c>
@@ -3172,7 +3074,7 @@
       </c>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3117,7 @@
       </c>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>21</v>
       </c>
@@ -3258,7 +3160,7 @@
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3203,7 @@
       </c>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>21</v>
       </c>
@@ -3343,14 +3245,8 @@
         <v>0.69047619047619047</v>
       </c>
       <c r="N52" s="10"/>
-      <c r="P52" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>21</v>
       </c>
@@ -3392,16 +3288,12 @@
         <v>0.80769230769230771</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P53" s="14">
-        <v>51</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>21</v>
       </c>
@@ -3443,16 +3335,12 @@
         <v>0.87234042553191493</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P54" s="14">
-        <v>62</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
@@ -3494,14 +3382,13 @@
         <v>0.69620253164556967</v>
       </c>
       <c r="N55" s="6"/>
-      <c r="P55" s="14">
-        <v>94</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -3543,20 +3430,15 @@
         <v>0.75862068965517238</v>
       </c>
       <c r="N56" s="6"/>
-      <c r="P56" s="3">
-        <v>106</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>11</v>
-      </c>
-      <c r="S56" s="6">
-        <v>67</v>
-      </c>
-      <c r="T56" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O56" s="14"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
@@ -3598,22 +3480,17 @@
         <v>0.81666666666666665</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P57">
-        <v>67</v>
-      </c>
-      <c r="Q57">
-        <v>13</v>
-      </c>
-      <c r="S57" s="6">
-        <v>100</v>
-      </c>
-      <c r="T57" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>21</v>
       </c>
@@ -3655,16 +3532,17 @@
         <v>0.91428571428571426</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P58">
-        <v>100</v>
-      </c>
-      <c r="Q58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>21</v>
       </c>
@@ -3706,16 +3584,17 @@
         <v>0.81578947368421051</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P59">
-        <v>83</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -3757,16 +3636,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P60">
-        <v>72</v>
-      </c>
-      <c r="Q60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>21</v>
       </c>
@@ -3808,16 +3688,17 @@
         <v>0.70886075949367089</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P61">
-        <v>78</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>21</v>
       </c>
@@ -3859,16 +3740,17 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P62" s="6">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>21</v>
       </c>
@@ -3910,14 +3792,15 @@
         <v>0.74193548387096775</v>
       </c>
       <c r="N63" s="21"/>
-      <c r="P63" s="9">
-        <v>94</v>
-      </c>
-      <c r="Q63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O63" s="14"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>21</v>
       </c>
@@ -3959,14 +3842,15 @@
         <v>0.72164948453608246</v>
       </c>
       <c r="N64" s="21"/>
-      <c r="P64" s="6">
-        <v>66</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>21</v>
       </c>
@@ -4004,14 +3888,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="19"/>
-      <c r="P65" s="6">
-        <v>68</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>21</v>
       </c>
@@ -4049,14 +3934,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="19"/>
-      <c r="P66">
-        <v>53</v>
-      </c>
-      <c r="Q66">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>21</v>
       </c>
@@ -4098,14 +3984,15 @@
         <v>0.67088607594936711</v>
       </c>
       <c r="N67" s="21"/>
-      <c r="P67">
-        <v>109</v>
-      </c>
-      <c r="Q67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>21</v>
       </c>
@@ -4147,15 +4034,15 @@
         <v>0.70297029702970293</v>
       </c>
       <c r="N68" s="21"/>
-      <c r="P68">
-        <v>126</v>
-      </c>
-      <c r="Q68">
-        <v>38</v>
-      </c>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>21</v>
       </c>
@@ -4193,15 +4080,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N69" s="19"/>
-      <c r="P69" s="3">
-        <v>97</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>33</v>
-      </c>
+      <c r="O69" s="14"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="14"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>21</v>
       </c>
@@ -4239,15 +4126,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N70" s="19"/>
-      <c r="P70">
-        <v>98</v>
-      </c>
-      <c r="Q70">
-        <v>41</v>
-      </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>21</v>
       </c>
@@ -4289,17 +4170,11 @@
         <v>0.77966101694915257</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="P71">
-        <v>99</v>
-      </c>
-      <c r="Q71">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>21</v>
       </c>
@@ -4341,17 +4216,11 @@
         <v>0.65137614678899081</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="P72">
-        <v>168</v>
-      </c>
-      <c r="Q72">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>21</v>
       </c>
@@ -4393,15 +4262,9 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="N73" s="21"/>
-      <c r="P73">
-        <v>139</v>
-      </c>
-      <c r="Q73">
-        <v>24</v>
-      </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>21</v>
       </c>
@@ -4443,15 +4306,9 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="N74" s="21"/>
-      <c r="P74">
-        <v>88</v>
-      </c>
-      <c r="Q74">
-        <v>49</v>
-      </c>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
         <v>21</v>
       </c>
@@ -4489,17 +4346,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P75">
-        <v>47</v>
-      </c>
-      <c r="Q75">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
         <v>21</v>
       </c>
@@ -4537,17 +4388,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P76" s="14">
-        <v>98</v>
-      </c>
-      <c r="Q76" s="14">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>21</v>
       </c>
@@ -4589,17 +4436,13 @@
         <v>0.66265060240963858</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="P77" s="14">
-        <v>52</v>
-      </c>
-      <c r="Q77" s="14">
-        <v>47</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>21</v>
       </c>
@@ -4641,17 +4484,13 @@
         <v>0.86538461538461542</v>
       </c>
       <c r="N78" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="P78" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q78" s="14">
-        <v>58</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
         <v>21</v>
       </c>
@@ -4689,15 +4528,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N79" s="19"/>
-      <c r="P79" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q79" s="14">
-        <v>35</v>
-      </c>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
         <v>21</v>
       </c>
@@ -4735,15 +4570,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N80" s="19"/>
-      <c r="P80" s="14">
-        <v>38</v>
-      </c>
-      <c r="Q80" s="14">
-        <v>0</v>
-      </c>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>21</v>
       </c>
@@ -4785,15 +4616,11 @@
         <v>0.62857142857142856</v>
       </c>
       <c r="N81" s="21"/>
-      <c r="P81" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q81" s="14">
-        <v>34</v>
-      </c>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
       <c r="R81" s="14"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>21</v>
       </c>
@@ -4835,15 +4662,11 @@
         <v>0.81904761904761902</v>
       </c>
       <c r="N82" s="21"/>
-      <c r="P82" s="14">
-        <v>62</v>
-      </c>
-      <c r="Q82" s="14">
-        <v>97</v>
-      </c>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>21</v>
       </c>
@@ -4885,17 +4708,11 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P83">
-        <v>79</v>
-      </c>
-      <c r="Q83">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>21</v>
       </c>
@@ -4937,17 +4754,11 @@
         <v>0.74358974358974361</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="P84">
-        <v>59</v>
-      </c>
-      <c r="Q84">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="R84" s="14"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>21</v>
       </c>
@@ -4989,17 +4800,11 @@
         <v>0.72549019607843135</v>
       </c>
       <c r="N85" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="P85">
-        <v>75</v>
-      </c>
-      <c r="Q85">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>21</v>
       </c>
@@ -5041,17 +4846,11 @@
         <v>0.67346938775510201</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P86">
-        <v>166</v>
-      </c>
-      <c r="Q86">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>21</v>
       </c>
@@ -5093,17 +4892,11 @@
         <v>0.63235294117647056</v>
       </c>
       <c r="N87" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="P87">
-        <v>140</v>
-      </c>
-      <c r="Q87">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>21</v>
       </c>
@@ -5145,15 +4938,9 @@
         <v>0.79411764705882348</v>
       </c>
       <c r="N88" s="21"/>
-      <c r="P88">
-        <v>19</v>
-      </c>
-      <c r="Q88">
-        <v>39</v>
-      </c>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>21</v>
       </c>
@@ -5195,15 +4982,9 @@
         <v>0.84210526315789469</v>
       </c>
       <c r="N89" s="21"/>
-      <c r="P89">
-        <v>102</v>
-      </c>
-      <c r="Q89">
-        <v>49</v>
-      </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>21</v>
       </c>
@@ -5245,17 +5026,11 @@
         <v>0.67</v>
       </c>
       <c r="N90" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P90">
-        <v>136</v>
-      </c>
-      <c r="Q90">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>21</v>
       </c>
@@ -5297,17 +5072,11 @@
         <v>0.74468085106382975</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P91">
-        <v>76</v>
-      </c>
-      <c r="Q91">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>21</v>
       </c>
@@ -5349,17 +5118,11 @@
         <v>0.79032258064516125</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P92">
-        <v>94</v>
-      </c>
-      <c r="Q92">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>21</v>
       </c>
@@ -5401,15 +5164,9 @@
         <v>0.73809523809523814</v>
       </c>
       <c r="N93" s="21"/>
-      <c r="P93">
-        <v>126</v>
-      </c>
-      <c r="Q93">
-        <v>64</v>
-      </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>21</v>
       </c>
@@ -5451,15 +5208,9 @@
         <v>0.796875</v>
       </c>
       <c r="N94" s="21"/>
-      <c r="P94">
-        <v>78</v>
-      </c>
-      <c r="Q94">
-        <v>84</v>
-      </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>21</v>
       </c>
@@ -5501,17 +5252,11 @@
         <v>0.65384615384615385</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P95">
-        <v>88</v>
-      </c>
-      <c r="Q95">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>21</v>
       </c>
@@ -5553,17 +5298,11 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="N96" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P96">
-        <v>98</v>
-      </c>
-      <c r="Q96">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>21</v>
       </c>
@@ -5605,16 +5344,10 @@
         <v>0.78409090909090906</v>
       </c>
       <c r="N97" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P97">
-        <v>127</v>
-      </c>
-      <c r="Q97">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>21</v>
       </c>
@@ -5656,18 +5389,10 @@
         <v>0.64885496183206104</v>
       </c>
       <c r="N98" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P98">
-        <f>SUM(P53:P97)</f>
-        <v>3974</v>
-      </c>
-      <c r="Q98">
-        <f>SUM(Q53:Q97)</f>
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>21</v>
       </c>
@@ -5709,21 +5434,11 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="N99" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O99" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="P99">
-        <f>0.7*P98</f>
-        <v>2781.7999999999997</v>
-      </c>
-      <c r="Q99">
-        <f>0.7*Q98</f>
-        <v>1535.8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>21</v>
       </c>
@@ -5765,21 +5480,11 @@
         <v>0.69117647058823528</v>
       </c>
       <c r="N100" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O100" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="P100">
-        <f>0.6*P98</f>
-        <v>2384.4</v>
-      </c>
-      <c r="Q100">
-        <f>0.6*Q98</f>
-        <v>1316.3999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>21</v>
       </c>
@@ -5822,7 +5527,7 @@
       </c>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>21</v>
       </c>
@@ -5865,7 +5570,7 @@
       </c>
       <c r="N102" s="21"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="29" t="s">
         <v>21</v>
       </c>
@@ -5907,10 +5612,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
         <v>21</v>
       </c>
@@ -5952,10 +5657,10 @@
         <v>1</v>
       </c>
       <c r="N104" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>21</v>
       </c>
@@ -5997,10 +5702,10 @@
         <v>0.76635514018691586</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>21</v>
       </c>
@@ -6042,10 +5747,10 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>21</v>
       </c>
@@ -6088,7 +5793,7 @@
       </c>
       <c r="N107" s="21"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
         <v>21</v>
       </c>
@@ -6131,7 +5836,7 @@
       </c>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
         <v>21</v>
       </c>
@@ -6173,10 +5878,10 @@
         <v>0.59459459459459463</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="22" t="s">
         <v>21</v>
       </c>
@@ -6218,10 +5923,10 @@
         <v>0.94029850746268662</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="22" t="s">
         <v>21</v>
       </c>
@@ -6263,10 +5968,10 @@
         <v>0.53521126760563376</v>
       </c>
       <c r="N111" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="22" t="s">
         <v>21</v>
       </c>
@@ -6308,10 +6013,10 @@
         <v>0.7</v>
       </c>
       <c r="N112" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>21</v>
       </c>
@@ -6353,10 +6058,10 @@
         <v>0.79629629629629628</v>
       </c>
       <c r="N113" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="22" t="s">
         <v>21</v>
       </c>
@@ -6398,10 +6103,10 @@
         <v>0.66216216216216217</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="22" t="s">
         <v>21</v>
       </c>
@@ -6443,10 +6148,10 @@
         <v>0.65714285714285714</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>21</v>
       </c>
@@ -6488,10 +6193,10 @@
         <v>0.84482758620689657</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>21</v>
       </c>
@@ -6533,10 +6238,10 @@
         <v>0.640625</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
         <v>21</v>
       </c>
@@ -6578,23 +6283,23 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="I119" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <f>ROWS(J3:J118)-SUM(J3:J118)</f>
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L119">
         <f>SUM(L3:L118)</f>
@@ -6602,9 +6307,9 @@
       </c>
       <c r="M119" s="27"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I120" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J120">
         <f>ROWS(J3:J118) - 14</f>
@@ -6615,4 +6320,1140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DDE066-16B1-8845-8821-19D3E1505D03}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="33">
+        <v>89</v>
+      </c>
+      <c r="C2" s="33">
+        <v>44</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21">
+        <v>100</v>
+      </c>
+      <c r="G2" s="21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="33">
+        <v>87</v>
+      </c>
+      <c r="C3" s="33">
+        <v>58</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="20">
+        <v>39</v>
+      </c>
+      <c r="G3" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10">
+        <v>58</v>
+      </c>
+      <c r="G4" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
+        <v>94</v>
+      </c>
+      <c r="C6" s="10">
+        <v>68</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10">
+        <v>68</v>
+      </c>
+      <c r="G6" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10">
+        <v>106</v>
+      </c>
+      <c r="C7" s="10">
+        <v>69</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100</v>
+      </c>
+      <c r="C9" s="10">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10">
+        <v>83</v>
+      </c>
+      <c r="C10" s="10">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
+        <v>66</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
+        <v>88</v>
+      </c>
+      <c r="G16" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10">
+        <v>109</v>
+      </c>
+      <c r="C17" s="10">
+        <v>80</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10">
+        <v>67</v>
+      </c>
+      <c r="G17" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10">
+        <v>126</v>
+      </c>
+      <c r="C18" s="10">
+        <v>75</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10">
+        <v>72</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10">
+        <v>41</v>
+      </c>
+      <c r="G20" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10">
+        <v>99</v>
+      </c>
+      <c r="C21" s="10">
+        <v>78</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="10">
+        <v>36</v>
+      </c>
+      <c r="G21" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>168</v>
+      </c>
+      <c r="C22" s="6">
+        <v>113</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>139</v>
+      </c>
+      <c r="C23" s="10">
+        <v>91</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10">
+        <v>24</v>
+      </c>
+      <c r="G23" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>88</v>
+      </c>
+      <c r="C24" s="10">
+        <v>69</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10">
+        <v>49</v>
+      </c>
+      <c r="G24" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10">
+        <v>38</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10">
+        <v>98</v>
+      </c>
+      <c r="C26" s="10">
+        <v>75</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="10">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6">
+        <v>42</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="9">
+        <v>47</v>
+      </c>
+      <c r="G27" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6">
+        <v>58</v>
+      </c>
+      <c r="G28" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10">
+        <v>49</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="10">
+        <v>35</v>
+      </c>
+      <c r="G29" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="10">
+        <v>79</v>
+      </c>
+      <c r="C31" s="10">
+        <v>56</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="10">
+        <v>34</v>
+      </c>
+      <c r="G31" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="21">
+        <v>62</v>
+      </c>
+      <c r="C32" s="21">
+        <v>46</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="21">
+        <v>97</v>
+      </c>
+      <c r="G32" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="21">
+        <v>79</v>
+      </c>
+      <c r="C33" s="21">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="21">
+        <v>101</v>
+      </c>
+      <c r="G33" s="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="10">
+        <v>59</v>
+      </c>
+      <c r="C34" s="32">
+        <v>46</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="10">
+        <v>109</v>
+      </c>
+      <c r="G34" s="32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="21">
+        <v>75</v>
+      </c>
+      <c r="C35" s="21">
+        <v>55</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="21">
+        <v>84</v>
+      </c>
+      <c r="G35" s="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="21">
+        <v>166</v>
+      </c>
+      <c r="C36" s="21">
+        <v>110</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="21">
+        <v>52</v>
+      </c>
+      <c r="G36" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="21">
+        <v>140</v>
+      </c>
+      <c r="C37" s="21">
+        <v>88</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="21">
+        <v>105</v>
+      </c>
+      <c r="G37" s="21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="21">
+        <v>19</v>
+      </c>
+      <c r="C38" s="21">
+        <v>17</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="21">
+        <v>39</v>
+      </c>
+      <c r="G38" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="21">
+        <v>102</v>
+      </c>
+      <c r="C39" s="21">
+        <v>74</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="21">
+        <v>49</v>
+      </c>
+      <c r="G39" s="21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="21">
+        <v>136</v>
+      </c>
+      <c r="C40" s="21">
+        <v>86</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="21">
+        <v>68</v>
+      </c>
+      <c r="G40" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="21">
+        <v>76</v>
+      </c>
+      <c r="C41" s="21">
+        <v>64</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="21">
+        <v>100</v>
+      </c>
+      <c r="G41" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="21">
+        <v>94</v>
+      </c>
+      <c r="C42" s="21">
+        <v>70</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="21">
+        <v>62</v>
+      </c>
+      <c r="G42" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="21">
+        <v>126</v>
+      </c>
+      <c r="C43" s="21">
+        <v>93</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="21">
+        <v>64</v>
+      </c>
+      <c r="G43" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="21">
+        <v>78</v>
+      </c>
+      <c r="C44" s="21">
+        <v>51</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="21">
+        <v>84</v>
+      </c>
+      <c r="G44" s="21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="21">
+        <v>88</v>
+      </c>
+      <c r="C45" s="21">
+        <v>69</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="21">
+        <v>131</v>
+      </c>
+      <c r="G45" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="21">
+        <v>98</v>
+      </c>
+      <c r="C46" s="21">
+        <v>63</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="21">
+        <v>68</v>
+      </c>
+      <c r="G46" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="21">
+        <v>127</v>
+      </c>
+      <c r="C47" s="21">
+        <v>90</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="21">
+        <v>67</v>
+      </c>
+      <c r="G47" s="21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="21">
+        <v>67</v>
+      </c>
+      <c r="G48" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="21">
+        <v>107</v>
+      </c>
+      <c r="C49" s="21">
+        <v>82</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="21">
+        <v>80</v>
+      </c>
+      <c r="G49" s="21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="21">
+        <v>72</v>
+      </c>
+      <c r="C50" s="21">
+        <v>48</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="21">
+        <v>67</v>
+      </c>
+      <c r="G50" s="21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="21">
+        <v>74</v>
+      </c>
+      <c r="C51" s="21">
+        <v>44</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="21">
+        <v>67</v>
+      </c>
+      <c r="G51" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="21">
+        <v>71</v>
+      </c>
+      <c r="C52" s="21">
+        <v>38</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="21">
+        <v>70</v>
+      </c>
+      <c r="G52" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="21">
+        <v>108</v>
+      </c>
+      <c r="C53" s="21">
+        <v>86</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="21">
+        <v>74</v>
+      </c>
+      <c r="G53" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="21">
+        <v>35</v>
+      </c>
+      <c r="C54" s="21">
+        <v>23</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="21">
+        <v>58</v>
+      </c>
+      <c r="G54" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="21">
+        <v>64</v>
+      </c>
+      <c r="C55" s="21">
+        <v>41</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="21">
+        <v>34</v>
+      </c>
+      <c r="G55" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f>SUM(B2:B55)</f>
+        <v>4603</v>
+      </c>
+      <c r="C56">
+        <f>SUM(C2:C55)</f>
+        <v>3154</v>
+      </c>
+      <c r="F56">
+        <f>SUM(F2:F55)</f>
+        <v>2850</v>
+      </c>
+      <c r="G56">
+        <f>SUM(G2:G55)</f>
+        <v>2149</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C113">
+    <sortCondition ref="A2:A113"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/singer/Steph/Code/update-project/docs/metadata-summaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\singer\Steph\Code\update-project\docs\metadata-summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EF98A-DE9A-D245-9958-3503E806A2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="460" windowWidth="24220" windowHeight="16620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="465" windowWidth="24225" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -345,12 +344,18 @@
   </si>
   <si>
     <t>Initial units</t>
+  </si>
+  <si>
+    <t>errorred out, experiment notes say no spikes in PFC</t>
+  </si>
+  <si>
+    <t>errorred out, notes say CA1 was being super weird like low-pass filtered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -381,7 +386,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +465,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -474,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,7 +523,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -514,6 +530,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,34 +882,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U146"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="25" customWidth="1"/>
-    <col min="14" max="14" width="79.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="79.125" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
     <col min="16" max="1026" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +954,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -980,52 +1000,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="33">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="32">
         <v>17</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>210407</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="33">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33">
-        <v>1</v>
-      </c>
-      <c r="J3" s="33">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33">
+      <c r="D3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32">
         <v>89</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>44</v>
       </c>
       <c r="M3" s="26">
         <f>L3/K3</f>
         <v>0.4943820224719101</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1082,7 @@
       <c r="L4" s="21">
         <v>75</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <f t="shared" ref="M4:M68" si="0">L4/K4</f>
         <v>0.75</v>
       </c>
@@ -1074,56 +1094,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="33">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="32">
         <v>17</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>210408</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33">
-        <v>1</v>
-      </c>
-      <c r="H5" s="33">
-        <v>1</v>
-      </c>
-      <c r="I5" s="33">
-        <v>1</v>
-      </c>
-      <c r="J5" s="33">
-        <v>1</v>
-      </c>
-      <c r="K5" s="33">
+      <c r="D5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1</v>
+      </c>
+      <c r="K5" s="32">
         <v>87</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>58</v>
       </c>
       <c r="M5" s="26">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="33"/>
       <c r="P5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1180,7 @@
       <c r="L6" s="20">
         <v>29</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>0.74358974358974361</v>
       </c>
@@ -1172,7 +1192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1315,7 +1335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1383,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1431,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1479,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1527,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1575,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1601,7 +1621,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1667,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1711,7 @@
       <c r="N17" s="10"/>
       <c r="R17" s="14"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1735,7 +1755,7 @@
       <c r="N18" s="10"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1801,7 @@
       </c>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1847,7 @@
       </c>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1871,7 +1891,7 @@
       <c r="N21" s="6"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1935,7 @@
       <c r="N22" s="6"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1981,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +2029,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2057,7 +2077,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2102,7 +2122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2165,7 @@
       </c>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -2233,7 +2253,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2296,7 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>21</v>
       </c>
@@ -2320,7 +2340,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
@@ -2364,7 +2384,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
@@ -2408,7 +2428,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2472,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2563,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>21</v>
       </c>
@@ -2588,7 +2608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>21</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>21</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -2813,7 +2833,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
@@ -2859,7 +2879,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -2902,7 +2922,7 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>21</v>
       </c>
@@ -2945,7 +2965,7 @@
       </c>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>21</v>
       </c>
@@ -2988,7 +3008,7 @@
       </c>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3051,7 @@
       </c>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3094,7 @@
       </c>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +3137,7 @@
       </c>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>21</v>
       </c>
@@ -3160,7 +3180,7 @@
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>21</v>
       </c>
@@ -3203,7 +3223,7 @@
       </c>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>21</v>
       </c>
@@ -3246,7 +3266,7 @@
       </c>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3313,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>21</v>
       </c>
@@ -3340,7 +3360,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3408,7 @@
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -3438,7 +3458,7 @@
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
@@ -3490,7 +3510,7 @@
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>21</v>
       </c>
@@ -3542,7 +3562,7 @@
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>21</v>
       </c>
@@ -3594,7 +3614,7 @@
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -3646,7 +3666,7 @@
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>21</v>
       </c>
@@ -3698,7 +3718,7 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>21</v>
       </c>
@@ -3750,7 +3770,7 @@
       <c r="T62" s="14"/>
       <c r="U62" s="14"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>21</v>
       </c>
@@ -3800,7 +3820,7 @@
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3870,7 @@
       <c r="T64" s="14"/>
       <c r="U64" s="14"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>21</v>
       </c>
@@ -3883,7 +3903,7 @@
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="28" t="e">
+      <c r="M65" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3896,7 +3916,7 @@
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>21</v>
       </c>
@@ -3929,7 +3949,7 @@
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-      <c r="M66" s="28" t="e">
+      <c r="M66" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3942,7 +3962,7 @@
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>21</v>
       </c>
@@ -3992,7 +4012,7 @@
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>21</v>
       </c>
@@ -4042,7 +4062,7 @@
       <c r="T68" s="14"/>
       <c r="U68" s="14"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4095,7 @@
       </c>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-      <c r="M69" s="28" t="e">
+      <c r="M69" s="27" t="e">
         <f t="shared" ref="M69:M86" si="1">L69/K69</f>
         <v>#DIV/0!</v>
       </c>
@@ -4088,7 +4108,7 @@
       <c r="T69" s="14"/>
       <c r="U69" s="14"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>21</v>
       </c>
@@ -4121,14 +4141,14 @@
       </c>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-      <c r="M70" s="28" t="e">
+      <c r="M70" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N70" s="19"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>21</v>
       </c>
@@ -4162,19 +4182,19 @@
       <c r="K71" s="10">
         <v>59</v>
       </c>
-      <c r="L71" s="32">
+      <c r="L71" s="31">
         <v>46</v>
       </c>
       <c r="M71" s="26">
         <f t="shared" si="1"/>
         <v>0.77966101694915257</v>
       </c>
-      <c r="N71" s="32" t="s">
+      <c r="N71" s="31" t="s">
         <v>69</v>
       </c>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>21</v>
       </c>
@@ -4208,19 +4228,19 @@
       <c r="K72" s="10">
         <v>109</v>
       </c>
-      <c r="L72" s="32">
+      <c r="L72" s="31">
         <v>71</v>
       </c>
       <c r="M72" s="26">
         <f t="shared" si="1"/>
         <v>0.65137614678899081</v>
       </c>
-      <c r="N72" s="32" t="s">
+      <c r="N72" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>21</v>
       </c>
@@ -4264,7 +4284,7 @@
       <c r="N73" s="21"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>21</v>
       </c>
@@ -4308,7 +4328,7 @@
       <c r="N74" s="21"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>21</v>
       </c>
@@ -4341,7 +4361,7 @@
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
-      <c r="M75" s="28" t="e">
+      <c r="M75" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4350,7 +4370,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>21</v>
       </c>
@@ -4383,7 +4403,7 @@
       </c>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="M76" s="28" t="e">
+      <c r="M76" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4394,7 +4414,7 @@
       <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +4462,7 @@
       <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>21</v>
       </c>
@@ -4490,7 +4510,7 @@
       <c r="Q78" s="14"/>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>21</v>
       </c>
@@ -4523,7 +4543,7 @@
       </c>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
-      <c r="M79" s="28" t="e">
+      <c r="M79" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4532,7 +4552,7 @@
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>21</v>
       </c>
@@ -4565,7 +4585,7 @@
       </c>
       <c r="K80" s="19"/>
       <c r="L80" s="19"/>
-      <c r="M80" s="28" t="e">
+      <c r="M80" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4574,7 +4594,7 @@
       <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>21</v>
       </c>
@@ -4620,7 +4640,7 @@
       <c r="Q81" s="14"/>
       <c r="R81" s="14"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4686,7 @@
       <c r="Q82" s="14"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>21</v>
       </c>
@@ -4712,7 +4732,7 @@
       </c>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>21</v>
       </c>
@@ -4758,7 +4778,7 @@
       </c>
       <c r="R84" s="14"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>21</v>
       </c>
@@ -4804,7 +4824,7 @@
       </c>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4870,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4916,7 @@
       </c>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>21</v>
       </c>
@@ -4940,7 +4960,7 @@
       <c r="N88" s="21"/>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>21</v>
       </c>
@@ -4984,7 +5004,7 @@
       <c r="N89" s="21"/>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>21</v>
       </c>
@@ -5030,7 +5050,7 @@
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>21</v>
       </c>
@@ -5076,7 +5096,7 @@
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>21</v>
       </c>
@@ -5122,7 +5142,7 @@
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>21</v>
       </c>
@@ -5166,7 +5186,7 @@
       <c r="N93" s="21"/>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>21</v>
       </c>
@@ -5210,7 +5230,7 @@
       <c r="N94" s="21"/>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5276,7 @@
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>21</v>
       </c>
@@ -5302,7 +5322,7 @@
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>21</v>
       </c>
@@ -5392,7 +5412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>21</v>
       </c>
@@ -5438,7 +5458,7 @@
       </c>
       <c r="O99" s="16"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>21</v>
       </c>
@@ -5484,7 +5504,7 @@
       </c>
       <c r="O100" s="16"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>21</v>
       </c>
@@ -5527,7 +5547,7 @@
       </c>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>21</v>
       </c>
@@ -5570,35 +5590,35 @@
       </c>
       <c r="N102" s="21"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="29">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="28">
         <v>28</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="28">
         <v>211119</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="12">
         <v>0</v>
       </c>
-      <c r="F103" s="29">
-        <v>0</v>
-      </c>
-      <c r="G103" s="29">
-        <v>0</v>
-      </c>
-      <c r="H103" s="29">
-        <v>0</v>
-      </c>
-      <c r="I103" s="29">
-        <v>0</v>
-      </c>
-      <c r="J103" s="29">
+      <c r="F103" s="28">
+        <v>0</v>
+      </c>
+      <c r="G103" s="28">
+        <v>0</v>
+      </c>
+      <c r="H103" s="28">
+        <v>0</v>
+      </c>
+      <c r="I103" s="28">
+        <v>0</v>
+      </c>
+      <c r="J103" s="28">
         <v>1</v>
       </c>
       <c r="K103" s="12">
@@ -5607,7 +5627,7 @@
       <c r="L103" s="12">
         <v>0</v>
       </c>
-      <c r="M103" s="30" t="e">
+      <c r="M103" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5615,7 +5635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5672,7 @@
       <c r="L104" s="21">
         <v>67</v>
       </c>
-      <c r="M104" s="31">
+      <c r="M104" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5660,7 +5680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>21</v>
       </c>
@@ -5697,7 +5717,7 @@
       <c r="L105" s="21">
         <v>82</v>
       </c>
-      <c r="M105" s="31">
+      <c r="M105" s="30">
         <f t="shared" si="2"/>
         <v>0.76635514018691586</v>
       </c>
@@ -5705,7 +5725,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +5762,7 @@
       <c r="L106" s="21">
         <v>57</v>
       </c>
-      <c r="M106" s="31">
+      <c r="M106" s="30">
         <f t="shared" si="2"/>
         <v>0.71250000000000002</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>21</v>
       </c>
@@ -5787,13 +5807,13 @@
       <c r="L107" s="21">
         <v>48</v>
       </c>
-      <c r="M107" s="31">
+      <c r="M107" s="30">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N107" s="21"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>21</v>
       </c>
@@ -5830,13 +5850,13 @@
       <c r="L108" s="21">
         <v>52</v>
       </c>
-      <c r="M108" s="31">
+      <c r="M108" s="30">
         <f t="shared" si="2"/>
         <v>0.77611940298507465</v>
       </c>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>21</v>
       </c>
@@ -5873,7 +5893,7 @@
       <c r="L109" s="21">
         <v>44</v>
       </c>
-      <c r="M109" s="31">
+      <c r="M109" s="30">
         <f t="shared" si="2"/>
         <v>0.59459459459459463</v>
       </c>
@@ -5881,7 +5901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +5938,7 @@
       <c r="L110" s="21">
         <v>63</v>
       </c>
-      <c r="M110" s="31">
+      <c r="M110" s="30">
         <f t="shared" si="2"/>
         <v>0.94029850746268662</v>
       </c>
@@ -5926,7 +5946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +5983,7 @@
       <c r="L111" s="21">
         <v>38</v>
       </c>
-      <c r="M111" s="31">
+      <c r="M111" s="30">
         <f>L111/K111</f>
         <v>0.53521126760563376</v>
       </c>
@@ -5971,7 +5991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>21</v>
       </c>
@@ -6008,15 +6028,15 @@
       <c r="L112" s="21">
         <v>49</v>
       </c>
-      <c r="M112" s="31">
-        <f t="shared" ref="M112:M118" si="3">L112/K112</f>
+      <c r="M112" s="30">
+        <f t="shared" ref="M112:M144" si="3">L112/K112</f>
         <v>0.7</v>
       </c>
       <c r="N112" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>21</v>
       </c>
@@ -6053,7 +6073,7 @@
       <c r="L113" s="21">
         <v>86</v>
       </c>
-      <c r="M113" s="31">
+      <c r="M113" s="30">
         <f t="shared" si="3"/>
         <v>0.79629629629629628</v>
       </c>
@@ -6061,7 +6081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>21</v>
       </c>
@@ -6098,7 +6118,7 @@
       <c r="L114" s="21">
         <v>49</v>
       </c>
-      <c r="M114" s="31">
+      <c r="M114" s="30">
         <f t="shared" si="3"/>
         <v>0.66216216216216217</v>
       </c>
@@ -6106,7 +6126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>21</v>
       </c>
@@ -6143,7 +6163,7 @@
       <c r="L115" s="21">
         <v>23</v>
       </c>
-      <c r="M115" s="31">
+      <c r="M115" s="30">
         <f t="shared" si="3"/>
         <v>0.65714285714285714</v>
       </c>
@@ -6151,7 +6171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>21</v>
       </c>
@@ -6188,7 +6208,7 @@
       <c r="L116" s="21">
         <v>49</v>
       </c>
-      <c r="M116" s="31">
+      <c r="M116" s="30">
         <f t="shared" si="3"/>
         <v>0.84482758620689657</v>
       </c>
@@ -6196,7 +6216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>21</v>
       </c>
@@ -6233,7 +6253,7 @@
       <c r="L117" s="21">
         <v>41</v>
       </c>
-      <c r="M117" s="31">
+      <c r="M117" s="30">
         <f t="shared" si="3"/>
         <v>0.640625</v>
       </c>
@@ -6241,7 +6261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>21</v>
       </c>
@@ -6278,7 +6298,7 @@
       <c r="L118" s="21">
         <v>16</v>
       </c>
-      <c r="M118" s="31">
+      <c r="M118" s="30">
         <f t="shared" si="3"/>
         <v>0.47058823529411764</v>
       </c>
@@ -6286,33 +6306,1058 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="I119" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="34">
+        <v>33</v>
+      </c>
+      <c r="C119" s="34">
+        <v>220420</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="34">
+        <v>1</v>
+      </c>
+      <c r="F119" s="34">
+        <v>0</v>
+      </c>
+      <c r="G119" s="34">
+        <v>0</v>
+      </c>
+      <c r="H119" s="34">
+        <v>0</v>
+      </c>
+      <c r="I119" s="34">
+        <v>0</v>
+      </c>
+      <c r="J119" s="34">
+        <v>0</v>
+      </c>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N119" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="34">
+        <v>33</v>
+      </c>
+      <c r="C120" s="34">
+        <v>220420</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="34">
+        <v>1</v>
+      </c>
+      <c r="F120" s="34">
+        <v>0</v>
+      </c>
+      <c r="G120" s="34">
+        <v>0</v>
+      </c>
+      <c r="H120" s="34">
+        <v>0</v>
+      </c>
+      <c r="I120" s="34">
+        <v>0</v>
+      </c>
+      <c r="J120" s="34">
+        <v>0</v>
+      </c>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N120" s="34"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="34">
+        <v>33</v>
+      </c>
+      <c r="C121" s="34">
+        <v>220421</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="34">
+        <v>1</v>
+      </c>
+      <c r="F121" s="34">
+        <v>0</v>
+      </c>
+      <c r="G121" s="34">
+        <v>0</v>
+      </c>
+      <c r="H121" s="34">
+        <v>0</v>
+      </c>
+      <c r="I121" s="34">
+        <v>0</v>
+      </c>
+      <c r="J121" s="34">
+        <v>0</v>
+      </c>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N121" s="34"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="34">
+        <v>33</v>
+      </c>
+      <c r="C122" s="34">
+        <v>220421</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="34">
+        <v>1</v>
+      </c>
+      <c r="F122" s="34">
+        <v>0</v>
+      </c>
+      <c r="G122" s="34">
+        <v>0</v>
+      </c>
+      <c r="H122" s="34">
+        <v>0</v>
+      </c>
+      <c r="I122" s="34">
+        <v>0</v>
+      </c>
+      <c r="J122" s="34">
+        <v>0</v>
+      </c>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N122" s="34"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="34">
+        <v>33</v>
+      </c>
+      <c r="C123" s="34">
+        <v>220422</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="34">
+        <v>1</v>
+      </c>
+      <c r="F123" s="34">
+        <v>0</v>
+      </c>
+      <c r="G123" s="34">
+        <v>0</v>
+      </c>
+      <c r="H123" s="34">
+        <v>0</v>
+      </c>
+      <c r="I123" s="34">
+        <v>0</v>
+      </c>
+      <c r="J123" s="34">
+        <v>0</v>
+      </c>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N123" s="34"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="34">
+        <v>33</v>
+      </c>
+      <c r="C124" s="34">
+        <v>220422</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="34">
+        <v>1</v>
+      </c>
+      <c r="F124" s="34">
+        <v>0</v>
+      </c>
+      <c r="G124" s="34">
+        <v>0</v>
+      </c>
+      <c r="H124" s="34">
+        <v>0</v>
+      </c>
+      <c r="I124" s="34">
+        <v>0</v>
+      </c>
+      <c r="J124" s="34">
+        <v>0</v>
+      </c>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N124" s="34"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="34">
+        <v>33</v>
+      </c>
+      <c r="C125" s="34">
+        <v>220425</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="34">
+        <v>1</v>
+      </c>
+      <c r="F125" s="34">
+        <v>0</v>
+      </c>
+      <c r="G125" s="34">
+        <v>0</v>
+      </c>
+      <c r="H125" s="34">
+        <v>0</v>
+      </c>
+      <c r="I125" s="34">
+        <v>0</v>
+      </c>
+      <c r="J125" s="34">
+        <v>0</v>
+      </c>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N125" s="34"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" s="34">
+        <v>33</v>
+      </c>
+      <c r="C126" s="34">
+        <v>220425</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="34">
+        <v>1</v>
+      </c>
+      <c r="F126" s="34">
+        <v>0</v>
+      </c>
+      <c r="G126" s="34">
+        <v>0</v>
+      </c>
+      <c r="H126" s="34">
+        <v>0</v>
+      </c>
+      <c r="I126" s="34">
+        <v>0</v>
+      </c>
+      <c r="J126" s="34">
+        <v>0</v>
+      </c>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N126" s="34"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="34">
+        <v>33</v>
+      </c>
+      <c r="C127" s="34">
+        <v>220426</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="34">
+        <v>1</v>
+      </c>
+      <c r="F127" s="34">
+        <v>0</v>
+      </c>
+      <c r="G127" s="34">
+        <v>0</v>
+      </c>
+      <c r="H127" s="34">
+        <v>0</v>
+      </c>
+      <c r="I127" s="34">
+        <v>0</v>
+      </c>
+      <c r="J127" s="34">
+        <v>0</v>
+      </c>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N127" s="34"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="34">
+        <v>33</v>
+      </c>
+      <c r="C128" s="34">
+        <v>220426</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="34">
+        <v>1</v>
+      </c>
+      <c r="F128" s="34">
+        <v>0</v>
+      </c>
+      <c r="G128" s="34">
+        <v>0</v>
+      </c>
+      <c r="H128" s="34">
+        <v>0</v>
+      </c>
+      <c r="I128" s="34">
+        <v>0</v>
+      </c>
+      <c r="J128" s="34">
+        <v>0</v>
+      </c>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N128" s="34"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="34">
+        <v>33</v>
+      </c>
+      <c r="C129" s="34">
+        <v>220428</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="34">
+        <v>1</v>
+      </c>
+      <c r="F129" s="34">
+        <v>0</v>
+      </c>
+      <c r="G129" s="34">
+        <v>0</v>
+      </c>
+      <c r="H129" s="34">
+        <v>0</v>
+      </c>
+      <c r="I129" s="34">
+        <v>0</v>
+      </c>
+      <c r="J129" s="34">
+        <v>0</v>
+      </c>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N129" s="34"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="12">
+        <v>33</v>
+      </c>
+      <c r="C130" s="12">
+        <v>220428</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0</v>
+      </c>
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0</v>
+      </c>
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0</v>
+      </c>
+      <c r="J130" s="12">
+        <v>1</v>
+      </c>
+      <c r="K130" s="12">
+        <v>0</v>
+      </c>
+      <c r="L130" s="12">
+        <v>0</v>
+      </c>
+      <c r="M130" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N130" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="34">
+        <v>34</v>
+      </c>
+      <c r="C131" s="34">
+        <v>220614</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="34">
+        <v>1</v>
+      </c>
+      <c r="F131" s="34">
+        <v>0</v>
+      </c>
+      <c r="G131" s="34">
+        <v>0</v>
+      </c>
+      <c r="H131" s="34">
+        <v>0</v>
+      </c>
+      <c r="I131" s="34">
+        <v>0</v>
+      </c>
+      <c r="J131" s="34">
+        <v>0</v>
+      </c>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N131" s="34"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="34">
+        <v>34</v>
+      </c>
+      <c r="C132" s="34">
+        <v>220614</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="34">
+        <v>1</v>
+      </c>
+      <c r="F132" s="34">
+        <v>0</v>
+      </c>
+      <c r="G132" s="34">
+        <v>0</v>
+      </c>
+      <c r="H132" s="34">
+        <v>0</v>
+      </c>
+      <c r="I132" s="34">
+        <v>0</v>
+      </c>
+      <c r="J132" s="34">
+        <v>0</v>
+      </c>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N132" s="34"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" s="34">
+        <v>34</v>
+      </c>
+      <c r="C133" s="34">
+        <v>220615</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="34">
+        <v>1</v>
+      </c>
+      <c r="F133" s="34">
+        <v>0</v>
+      </c>
+      <c r="G133" s="34">
+        <v>0</v>
+      </c>
+      <c r="H133" s="34">
+        <v>0</v>
+      </c>
+      <c r="I133" s="34">
+        <v>0</v>
+      </c>
+      <c r="J133" s="34">
+        <v>0</v>
+      </c>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N133" s="34"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="34">
+        <v>34</v>
+      </c>
+      <c r="C134" s="34">
+        <v>220615</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="34">
+        <v>1</v>
+      </c>
+      <c r="F134" s="34">
+        <v>0</v>
+      </c>
+      <c r="G134" s="34">
+        <v>0</v>
+      </c>
+      <c r="H134" s="34">
+        <v>0</v>
+      </c>
+      <c r="I134" s="34">
+        <v>0</v>
+      </c>
+      <c r="J134" s="34">
+        <v>0</v>
+      </c>
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N134" s="34"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="34">
+        <v>34</v>
+      </c>
+      <c r="C135" s="34">
+        <v>220616</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="34">
+        <v>1</v>
+      </c>
+      <c r="F135" s="34">
+        <v>0</v>
+      </c>
+      <c r="G135" s="34">
+        <v>0</v>
+      </c>
+      <c r="H135" s="34">
+        <v>0</v>
+      </c>
+      <c r="I135" s="34">
+        <v>0</v>
+      </c>
+      <c r="J135" s="34">
+        <v>0</v>
+      </c>
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N135" s="34"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="34">
+        <v>34</v>
+      </c>
+      <c r="C136" s="34">
+        <v>220616</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="34">
+        <v>1</v>
+      </c>
+      <c r="F136" s="34">
+        <v>0</v>
+      </c>
+      <c r="G136" s="34">
+        <v>0</v>
+      </c>
+      <c r="H136" s="34">
+        <v>0</v>
+      </c>
+      <c r="I136" s="34">
+        <v>0</v>
+      </c>
+      <c r="J136" s="34">
+        <v>0</v>
+      </c>
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N136" s="34"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="34">
+        <v>34</v>
+      </c>
+      <c r="C137" s="34">
+        <v>220617</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="34">
+        <v>1</v>
+      </c>
+      <c r="F137" s="34">
+        <v>0</v>
+      </c>
+      <c r="G137" s="34">
+        <v>0</v>
+      </c>
+      <c r="H137" s="34">
+        <v>0</v>
+      </c>
+      <c r="I137" s="34">
+        <v>0</v>
+      </c>
+      <c r="J137" s="34">
+        <v>0</v>
+      </c>
+      <c r="K137" s="34"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N137" s="34"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="34">
+        <v>34</v>
+      </c>
+      <c r="C138" s="34">
+        <v>220617</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="34">
+        <v>1</v>
+      </c>
+      <c r="F138" s="34">
+        <v>0</v>
+      </c>
+      <c r="G138" s="34">
+        <v>0</v>
+      </c>
+      <c r="H138" s="34">
+        <v>0</v>
+      </c>
+      <c r="I138" s="34">
+        <v>0</v>
+      </c>
+      <c r="J138" s="34">
+        <v>0</v>
+      </c>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N138" s="34"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="12">
+        <v>34</v>
+      </c>
+      <c r="C139" s="12">
+        <v>220620</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="12">
+        <v>0</v>
+      </c>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+      <c r="G139" s="12">
+        <v>0</v>
+      </c>
+      <c r="H139" s="12">
+        <v>0</v>
+      </c>
+      <c r="I139" s="12">
+        <v>0</v>
+      </c>
+      <c r="J139" s="12">
+        <v>1</v>
+      </c>
+      <c r="K139" s="12">
+        <v>0</v>
+      </c>
+      <c r="L139" s="12">
+        <v>0</v>
+      </c>
+      <c r="M139" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N139" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="34">
+        <v>34</v>
+      </c>
+      <c r="C140" s="34">
+        <v>220620</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="34">
+        <v>1</v>
+      </c>
+      <c r="F140" s="34">
+        <v>0</v>
+      </c>
+      <c r="G140" s="34">
+        <v>0</v>
+      </c>
+      <c r="H140" s="34">
+        <v>0</v>
+      </c>
+      <c r="I140" s="34">
+        <v>0</v>
+      </c>
+      <c r="J140" s="34">
+        <v>0</v>
+      </c>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N140" s="34"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" s="34">
+        <v>34</v>
+      </c>
+      <c r="C141" s="34">
+        <v>220621</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="34">
+        <v>1</v>
+      </c>
+      <c r="F141" s="34">
+        <v>0</v>
+      </c>
+      <c r="G141" s="34">
+        <v>0</v>
+      </c>
+      <c r="H141" s="34">
+        <v>0</v>
+      </c>
+      <c r="I141" s="34">
+        <v>0</v>
+      </c>
+      <c r="J141" s="34">
+        <v>0</v>
+      </c>
+      <c r="K141" s="34"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N141" s="34"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="34">
+        <v>34</v>
+      </c>
+      <c r="C142" s="34">
+        <v>220621</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="34">
+        <v>1</v>
+      </c>
+      <c r="F142" s="34">
+        <v>0</v>
+      </c>
+      <c r="G142" s="34">
+        <v>0</v>
+      </c>
+      <c r="H142" s="34">
+        <v>0</v>
+      </c>
+      <c r="I142" s="34">
+        <v>0</v>
+      </c>
+      <c r="J142" s="34">
+        <v>0</v>
+      </c>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N142" s="34"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="34">
+        <v>34</v>
+      </c>
+      <c r="C143" s="34">
+        <v>220623</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="34">
+        <v>1</v>
+      </c>
+      <c r="F143" s="34">
+        <v>0</v>
+      </c>
+      <c r="G143" s="34">
+        <v>0</v>
+      </c>
+      <c r="H143" s="34">
+        <v>0</v>
+      </c>
+      <c r="I143" s="34">
+        <v>0</v>
+      </c>
+      <c r="J143" s="34">
+        <v>0</v>
+      </c>
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N143" s="34"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="34">
+        <v>34</v>
+      </c>
+      <c r="C144" s="34">
+        <v>220623</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="34">
+        <v>1</v>
+      </c>
+      <c r="F144" s="34">
+        <v>0</v>
+      </c>
+      <c r="G144" s="34">
+        <v>0</v>
+      </c>
+      <c r="H144" s="34">
+        <v>0</v>
+      </c>
+      <c r="I144" s="34">
+        <v>0</v>
+      </c>
+      <c r="J144" s="34">
+        <v>0</v>
+      </c>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N144" s="34"/>
+    </row>
+    <row r="145" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D145" s="13"/>
+      <c r="I145" t="s">
         <v>44</v>
       </c>
-      <c r="J119">
-        <f>ROWS(J3:J118)-SUM(J3:J118)</f>
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
+      <c r="J145">
+        <f>ROWS(J3:J144)-SUM(J3:J144)</f>
+        <v>24</v>
+      </c>
+      <c r="K145" t="s">
         <v>64</v>
       </c>
-      <c r="L119">
-        <f>SUM(L3:L118)</f>
+      <c r="L145">
+        <f>SUM(L3:L144)</f>
         <v>5303</v>
       </c>
-      <c r="M119" s="27"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I120" t="s">
+    </row>
+    <row r="146" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D146" s="13"/>
+      <c r="I146" t="s">
         <v>87</v>
       </c>
-      <c r="J120">
-        <f>ROWS(J3:J118) - 14</f>
+      <c r="J146">
+        <f>SUM(J3:J144) - 16</f>
         <v>102</v>
       </c>
     </row>
@@ -6323,16 +7368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DDE066-16B1-8845-8821-19D3E1505D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -6352,14 +7397,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="33">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="32">
         <v>89</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>44</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -6372,14 +7417,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="33">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="32">
         <v>87</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>58</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -6392,7 +7437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -6412,7 +7457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6432,7 +7477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -6452,7 +7497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -6472,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -6492,7 +7537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -6512,7 +7557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -6532,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -6552,7 +7597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -6572,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -6592,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -6632,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -6652,7 +7697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -6672,7 +7717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -6692,7 +7737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
@@ -6712,7 +7757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -6732,7 +7777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -6752,7 +7797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -6772,7 +7817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
@@ -6792,7 +7837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -6812,7 +7857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -6832,7 +7877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
@@ -6852,7 +7897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -6872,7 +7917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
@@ -6892,7 +7937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
@@ -6912,7 +7957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
@@ -6932,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>22</v>
       </c>
@@ -6952,7 +7997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>22</v>
       </c>
@@ -6972,7 +8017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>22</v>
       </c>
@@ -6992,14 +8037,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="10">
         <v>59</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>46</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -7008,11 +8053,11 @@
       <c r="F34" s="10">
         <v>109</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>22</v>
       </c>
@@ -7032,7 +8077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
@@ -7052,7 +8097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
@@ -7072,7 +8117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>22</v>
       </c>
@@ -7092,7 +8137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>22</v>
       </c>
@@ -7112,7 +8157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>22</v>
       </c>
@@ -7132,7 +8177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -7152,7 +8197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>22</v>
       </c>
@@ -7172,7 +8217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>22</v>
       </c>
@@ -7192,7 +8237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>22</v>
       </c>
@@ -7212,7 +8257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>22</v>
       </c>
@@ -7232,7 +8277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>22</v>
       </c>
@@ -7252,7 +8297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>22</v>
       </c>
@@ -7272,8 +8317,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="12">
@@ -7292,7 +8337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>22</v>
       </c>
@@ -7312,7 +8357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>22</v>
       </c>
@@ -7332,7 +8377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>22</v>
       </c>
@@ -7352,7 +8397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>22</v>
       </c>
@@ -7372,7 +8417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>22</v>
       </c>
@@ -7392,7 +8437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>22</v>
       </c>
@@ -7412,7 +8457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>22</v>
       </c>
@@ -7432,7 +8477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <f>SUM(B2:B55)</f>
         <v>4603</v>
@@ -7451,7 +8496,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C113">
+  <sortState ref="A2:C113">
     <sortCondition ref="A2:A113"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
+++ b/docs/metadata-summaries/UpdateTaskKilosortSummary.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\singer\Steph\Code\update-project\docs\metadata-summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA9E87-38B6-4A8C-9FEF-2F978C210D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="465" windowWidth="24225" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="4575" yWindow="465" windowWidth="24225" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -154,12 +145,6 @@
     <t>error = gpuArray input matrix contains nan or inf, experiment notes say minimal spikes</t>
   </si>
   <si>
-    <t>CUDA error, need to check</t>
-  </si>
-  <si>
-    <t>CUDA error but might just be from PFC, need to check</t>
-  </si>
-  <si>
     <t>a lot of the clusters were noise/purely contamination, lower spike count, 1 cluster excluded</t>
   </si>
   <si>
@@ -350,12 +335,63 @@
   </si>
   <si>
     <t>errorred out, notes say CA1 was being super weird like low-pass filtered</t>
+  </si>
+  <si>
+    <t>one noise event that really contaminated a lot of clusters in this one</t>
+  </si>
+  <si>
+    <t>really few units and lots of noise</t>
+  </si>
+  <si>
+    <t>pretty nice</t>
+  </si>
+  <si>
+    <t>baseline more isi contamination than usual</t>
+  </si>
+  <si>
+    <t>nice units</t>
+  </si>
+  <si>
+    <t>not using this animal</t>
+  </si>
+  <si>
+    <t>not using this animal, CUDA error but might just be from PFC, need to check</t>
+  </si>
+  <si>
+    <t>not using this animal, CUDA error, need to check</t>
+  </si>
+  <si>
+    <t>not a great one, very low snr</t>
+  </si>
+  <si>
+    <t>some noise contaminated clusters but lots of nice ones</t>
+  </si>
+  <si>
+    <t>lots of not great movement noise and noise clusters</t>
+  </si>
+  <si>
+    <t>lots of nice units and spikes here</t>
+  </si>
+  <si>
+    <t>really bad noise at start of recording, had to cut a lot of the first part out</t>
+  </si>
+  <si>
+    <t>bad cell phone noise and bad channel on probe</t>
+  </si>
+  <si>
+    <t>really contaminated ISI not sure why… did my best</t>
+  </si>
+  <si>
+    <t>5 or 6 units had weird amp view, some noisey clusters with 50k+ units (unncuttable), overall okay recordinng</t>
+  </si>
+  <si>
+    <t>lots of L shaped amplitude, cell phone noise lines, LOTS of pure noise clusters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -386,7 +422,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,18 +501,6 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,10 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,12 +902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M128" sqref="M128"/>
+      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -997,7 +1017,7 @@
       </c>
       <c r="O2" s="1"/>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1087,7 +1107,7 @@
         <v>0.75</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" t="s">
@@ -1136,7 +1156,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O5" s="33"/>
       <c r="P5" t="s">
@@ -1185,7 +1205,7 @@
         <v>0.74358974358974361</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" t="s">
@@ -1279,7 +1299,7 @@
         <v>0.7068965517241379</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" t="s">
@@ -1328,11 +1348,11 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1377,7 +1397,7 @@
         <v>0.625</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -1425,7 +1445,7 @@
         <v>0.72340425531914898</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -1473,7 +1493,7 @@
         <v>0.5</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -1521,7 +1541,7 @@
         <v>0.65094339622641506</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -1569,7 +1589,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -1797,7 +1817,7 @@
         <v>0.71084337349397586</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R19" s="15"/>
     </row>
@@ -2514,7 +2534,7 @@
         <v>0.59523809523809523</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2559,7 +2579,7 @@
         <v>0.86842105263157898</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O36" s="5"/>
     </row>
@@ -2605,7 +2625,7 @@
         <v>0.74226804123711343</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2650,7 +2670,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2695,7 +2715,7 @@
         <v>0.80612244897959184</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2740,7 +2760,7 @@
         <v>0.90243902439024393</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2785,7 +2805,7 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2830,7 +2850,7 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3500,7 +3520,7 @@
         <v>0.81666666666666665</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -3552,7 +3572,7 @@
         <v>0.91428571428571426</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -3604,7 +3624,7 @@
         <v>0.81578947368421051</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -3708,7 +3728,7 @@
         <v>0.70886075949367089</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
@@ -3760,7 +3780,7 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -3907,7 +3927,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="19"/>
+      <c r="N65" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
@@ -3953,7 +3975,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N66" s="19"/>
+      <c r="N66" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
@@ -4099,7 +4123,9 @@
         <f t="shared" ref="M69:M86" si="1">L69/K69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N69" s="19"/>
+      <c r="N69" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="O69" s="14"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
@@ -4145,7 +4171,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N70" s="19"/>
+      <c r="N70" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="R70" s="14"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -4190,7 +4218,7 @@
         <v>0.77966101694915257</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R71" s="14"/>
     </row>
@@ -4236,7 +4264,7 @@
         <v>0.65137614678899081</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R72" s="14"/>
     </row>
@@ -4366,7 +4394,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="R75" s="14"/>
     </row>
@@ -4408,7 +4436,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
@@ -4456,7 +4484,7 @@
         <v>0.66265060240963858</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
@@ -4504,7 +4532,7 @@
         <v>0.86538461538461542</v>
       </c>
       <c r="N78" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
@@ -4547,7 +4575,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N79" s="19"/>
+      <c r="N79" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
@@ -4589,7 +4619,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N80" s="19"/>
+      <c r="N80" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
@@ -4728,7 +4760,7 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R83" s="14"/>
     </row>
@@ -4774,7 +4806,7 @@
         <v>0.74358974358974361</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R84" s="14"/>
     </row>
@@ -4820,7 +4852,7 @@
         <v>0.72549019607843135</v>
       </c>
       <c r="N85" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R85" s="14"/>
     </row>
@@ -4866,7 +4898,7 @@
         <v>0.67346938775510201</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R86" s="14"/>
     </row>
@@ -4912,7 +4944,7 @@
         <v>0.63235294117647056</v>
       </c>
       <c r="N87" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R87" s="14"/>
     </row>
@@ -5046,7 +5078,7 @@
         <v>0.67</v>
       </c>
       <c r="N90" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R90" s="14"/>
     </row>
@@ -5092,7 +5124,7 @@
         <v>0.74468085106382975</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R91" s="14"/>
     </row>
@@ -5138,7 +5170,7 @@
         <v>0.79032258064516125</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R92" s="14"/>
     </row>
@@ -5272,7 +5304,7 @@
         <v>0.65384615384615385</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R95" s="14"/>
     </row>
@@ -5318,7 +5350,7 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="N96" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R96" s="14"/>
     </row>
@@ -5364,7 +5396,7 @@
         <v>0.78409090909090906</v>
       </c>
       <c r="N97" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5409,7 +5441,7 @@
         <v>0.64885496183206104</v>
       </c>
       <c r="N98" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5454,7 +5486,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="N99" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O99" s="16"/>
     </row>
@@ -5500,7 +5532,7 @@
         <v>0.69117647058823528</v>
       </c>
       <c r="N100" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O100" s="16"/>
     </row>
@@ -5632,7 +5664,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -5677,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5722,7 +5754,7 @@
         <v>0.76635514018691586</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5767,7 +5799,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5898,7 +5930,7 @@
         <v>0.59459459459459463</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5943,7 +5975,7 @@
         <v>0.94029850746268662</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -5988,7 +6020,7 @@
         <v>0.53521126760563376</v>
       </c>
       <c r="N111" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6033,10 +6065,10 @@
         <v>0.7</v>
       </c>
       <c r="N112" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>21</v>
       </c>
@@ -6078,10 +6110,10 @@
         <v>0.79629629629629628</v>
       </c>
       <c r="N113" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>21</v>
       </c>
@@ -6123,10 +6155,10 @@
         <v>0.66216216216216217</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>21</v>
       </c>
@@ -6168,10 +6200,10 @@
         <v>0.65714285714285714</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>21</v>
       </c>
@@ -6213,10 +6245,10 @@
         <v>0.84482758620689657</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>21</v>
       </c>
@@ -6258,10 +6290,10 @@
         <v>0.640625</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>21</v>
       </c>
@@ -6303,439 +6335,498 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="21">
         <v>33</v>
       </c>
-      <c r="C119" s="34">
+      <c r="C119" s="21">
         <v>220420</v>
       </c>
-      <c r="D119" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="34">
-        <v>1</v>
-      </c>
-      <c r="F119" s="34">
-        <v>0</v>
-      </c>
-      <c r="G119" s="34">
-        <v>0</v>
-      </c>
-      <c r="H119" s="34">
-        <v>0</v>
-      </c>
-      <c r="I119" s="34">
-        <v>0</v>
-      </c>
-      <c r="J119" s="34">
-        <v>0</v>
-      </c>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="36" t="e">
+      <c r="D119" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="21">
+        <v>1</v>
+      </c>
+      <c r="F119" s="21">
+        <v>1</v>
+      </c>
+      <c r="G119" s="21">
+        <v>1</v>
+      </c>
+      <c r="H119" s="21">
+        <v>1</v>
+      </c>
+      <c r="I119" s="21">
+        <v>1</v>
+      </c>
+      <c r="J119" s="21">
+        <v>1</v>
+      </c>
+      <c r="K119" s="21">
+        <v>103</v>
+      </c>
+      <c r="L119" s="21">
+        <v>103</v>
+      </c>
+      <c r="M119" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N119" s="32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="34">
+      <c r="O119" s="4"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="21">
         <v>33</v>
       </c>
-      <c r="C120" s="34">
+      <c r="C120" s="21">
         <v>220420</v>
       </c>
-      <c r="D120" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="34">
-        <v>1</v>
-      </c>
-      <c r="F120" s="34">
-        <v>0</v>
-      </c>
-      <c r="G120" s="34">
-        <v>0</v>
-      </c>
-      <c r="H120" s="34">
-        <v>0</v>
-      </c>
-      <c r="I120" s="34">
-        <v>0</v>
-      </c>
-      <c r="J120" s="34">
-        <v>0</v>
-      </c>
-      <c r="K120" s="34"/>
-      <c r="L120" s="34"/>
-      <c r="M120" s="36" t="e">
+      <c r="D120" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="21">
+        <v>1</v>
+      </c>
+      <c r="F120" s="21">
+        <v>1</v>
+      </c>
+      <c r="G120" s="21">
+        <v>1</v>
+      </c>
+      <c r="H120" s="21">
+        <v>1</v>
+      </c>
+      <c r="I120" s="21">
+        <v>1</v>
+      </c>
+      <c r="J120" s="21">
+        <v>1</v>
+      </c>
+      <c r="K120" s="21">
+        <v>115</v>
+      </c>
+      <c r="L120" s="21">
+        <v>73</v>
+      </c>
+      <c r="M120" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" s="34"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="34">
+        <v>0.63478260869565217</v>
+      </c>
+      <c r="N120" s="21"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="21">
         <v>33</v>
       </c>
-      <c r="C121" s="34">
+      <c r="C121" s="21">
         <v>220421</v>
       </c>
-      <c r="D121" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="34">
-        <v>1</v>
-      </c>
-      <c r="F121" s="34">
-        <v>0</v>
-      </c>
-      <c r="G121" s="34">
-        <v>0</v>
-      </c>
-      <c r="H121" s="34">
-        <v>0</v>
-      </c>
-      <c r="I121" s="34">
-        <v>0</v>
-      </c>
-      <c r="J121" s="34">
-        <v>0</v>
-      </c>
-      <c r="K121" s="34"/>
-      <c r="L121" s="34"/>
-      <c r="M121" s="36" t="e">
+      <c r="D121" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="21">
+        <v>1</v>
+      </c>
+      <c r="F121" s="21">
+        <v>1</v>
+      </c>
+      <c r="G121" s="21">
+        <v>1</v>
+      </c>
+      <c r="H121" s="21">
+        <v>1</v>
+      </c>
+      <c r="I121" s="21">
+        <v>1</v>
+      </c>
+      <c r="J121" s="21">
+        <v>1</v>
+      </c>
+      <c r="K121" s="21">
+        <v>100</v>
+      </c>
+      <c r="L121" s="21">
+        <v>74</v>
+      </c>
+      <c r="M121" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N121" s="34"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="N121" s="21"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="21">
         <v>33</v>
       </c>
-      <c r="C122" s="34">
+      <c r="C122" s="21">
         <v>220421</v>
       </c>
-      <c r="D122" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="34">
-        <v>1</v>
-      </c>
-      <c r="F122" s="34">
-        <v>0</v>
-      </c>
-      <c r="G122" s="34">
-        <v>0</v>
-      </c>
-      <c r="H122" s="34">
-        <v>0</v>
-      </c>
-      <c r="I122" s="34">
-        <v>0</v>
-      </c>
-      <c r="J122" s="34">
-        <v>0</v>
-      </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="36" t="e">
+      <c r="D122" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="21">
+        <v>1</v>
+      </c>
+      <c r="F122" s="21">
+        <v>1</v>
+      </c>
+      <c r="G122" s="21">
+        <v>1</v>
+      </c>
+      <c r="H122" s="21">
+        <v>1</v>
+      </c>
+      <c r="I122" s="21">
+        <v>1</v>
+      </c>
+      <c r="J122" s="21">
+        <v>1</v>
+      </c>
+      <c r="K122" s="21">
+        <v>42</v>
+      </c>
+      <c r="L122" s="21">
+        <v>32</v>
+      </c>
+      <c r="M122" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N122" s="34"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B123" s="34">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="N122" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="21">
         <v>33</v>
       </c>
-      <c r="C123" s="34">
+      <c r="C123" s="21">
         <v>220422</v>
       </c>
-      <c r="D123" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="34">
-        <v>1</v>
-      </c>
-      <c r="F123" s="34">
-        <v>0</v>
-      </c>
-      <c r="G123" s="34">
-        <v>0</v>
-      </c>
-      <c r="H123" s="34">
-        <v>0</v>
-      </c>
-      <c r="I123" s="34">
-        <v>0</v>
-      </c>
-      <c r="J123" s="34">
-        <v>0</v>
-      </c>
-      <c r="K123" s="34"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="36" t="e">
+      <c r="D123" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="21">
+        <v>1</v>
+      </c>
+      <c r="F123" s="21">
+        <v>1</v>
+      </c>
+      <c r="G123" s="21">
+        <v>1</v>
+      </c>
+      <c r="H123" s="21">
+        <v>1</v>
+      </c>
+      <c r="I123" s="21">
+        <v>1</v>
+      </c>
+      <c r="J123" s="21">
+        <v>1</v>
+      </c>
+      <c r="K123" s="21">
+        <v>90</v>
+      </c>
+      <c r="L123" s="21">
+        <v>61</v>
+      </c>
+      <c r="M123" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N123" s="34"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" s="34">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="N123" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="21">
         <v>33</v>
       </c>
-      <c r="C124" s="34">
+      <c r="C124" s="21">
         <v>220422</v>
       </c>
-      <c r="D124" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="34">
-        <v>1</v>
-      </c>
-      <c r="F124" s="34">
-        <v>0</v>
-      </c>
-      <c r="G124" s="34">
-        <v>0</v>
-      </c>
-      <c r="H124" s="34">
-        <v>0</v>
-      </c>
-      <c r="I124" s="34">
-        <v>0</v>
-      </c>
-      <c r="J124" s="34">
-        <v>0</v>
-      </c>
-      <c r="K124" s="34"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="36" t="e">
+      <c r="D124" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="21">
+        <v>1</v>
+      </c>
+      <c r="F124" s="21">
+        <v>1</v>
+      </c>
+      <c r="G124" s="21">
+        <v>1</v>
+      </c>
+      <c r="H124" s="21">
+        <v>1</v>
+      </c>
+      <c r="I124" s="21">
+        <v>1</v>
+      </c>
+      <c r="J124" s="21">
+        <v>1</v>
+      </c>
+      <c r="K124" s="21">
+        <v>46</v>
+      </c>
+      <c r="L124" s="21">
+        <v>31</v>
+      </c>
+      <c r="M124" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N124" s="34"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="34">
+        <v>0.67391304347826086</v>
+      </c>
+      <c r="N124" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="21">
         <v>33</v>
       </c>
-      <c r="C125" s="34">
+      <c r="C125" s="21">
         <v>220425</v>
       </c>
-      <c r="D125" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="34">
-        <v>1</v>
-      </c>
-      <c r="F125" s="34">
-        <v>0</v>
-      </c>
-      <c r="G125" s="34">
-        <v>0</v>
-      </c>
-      <c r="H125" s="34">
-        <v>0</v>
-      </c>
-      <c r="I125" s="34">
-        <v>0</v>
-      </c>
-      <c r="J125" s="34">
-        <v>0</v>
-      </c>
-      <c r="K125" s="34"/>
-      <c r="L125" s="34"/>
-      <c r="M125" s="36" t="e">
+      <c r="D125" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="21">
+        <v>1</v>
+      </c>
+      <c r="F125" s="21">
+        <v>1</v>
+      </c>
+      <c r="G125" s="21">
+        <v>1</v>
+      </c>
+      <c r="H125" s="21">
+        <v>1</v>
+      </c>
+      <c r="I125" s="21">
+        <v>1</v>
+      </c>
+      <c r="J125" s="21">
+        <v>1</v>
+      </c>
+      <c r="K125" s="21">
+        <v>90</v>
+      </c>
+      <c r="L125" s="21">
+        <v>70</v>
+      </c>
+      <c r="M125" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N125" s="34"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="34">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="N125" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" s="21">
         <v>33</v>
       </c>
-      <c r="C126" s="34">
+      <c r="C126" s="21">
         <v>220425</v>
       </c>
-      <c r="D126" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="34">
-        <v>1</v>
-      </c>
-      <c r="F126" s="34">
-        <v>0</v>
-      </c>
-      <c r="G126" s="34">
-        <v>0</v>
-      </c>
-      <c r="H126" s="34">
-        <v>0</v>
-      </c>
-      <c r="I126" s="34">
-        <v>0</v>
-      </c>
-      <c r="J126" s="34">
-        <v>0</v>
-      </c>
-      <c r="K126" s="34"/>
-      <c r="L126" s="34"/>
-      <c r="M126" s="36" t="e">
+      <c r="D126" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="21">
+        <v>1</v>
+      </c>
+      <c r="F126" s="21">
+        <v>1</v>
+      </c>
+      <c r="G126" s="21">
+        <v>1</v>
+      </c>
+      <c r="H126" s="21">
+        <v>1</v>
+      </c>
+      <c r="I126" s="21">
+        <v>1</v>
+      </c>
+      <c r="J126" s="21">
+        <v>1</v>
+      </c>
+      <c r="K126" s="21">
+        <v>32</v>
+      </c>
+      <c r="L126" s="21">
+        <v>28</v>
+      </c>
+      <c r="M126" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N126" s="34"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="34">
+        <v>0.875</v>
+      </c>
+      <c r="N126" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="21">
         <v>33</v>
       </c>
-      <c r="C127" s="34">
+      <c r="C127" s="21">
         <v>220426</v>
       </c>
-      <c r="D127" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="34">
-        <v>1</v>
-      </c>
-      <c r="F127" s="34">
-        <v>0</v>
-      </c>
-      <c r="G127" s="34">
-        <v>0</v>
-      </c>
-      <c r="H127" s="34">
-        <v>0</v>
-      </c>
-      <c r="I127" s="34">
-        <v>0</v>
-      </c>
-      <c r="J127" s="34">
-        <v>0</v>
-      </c>
-      <c r="K127" s="34"/>
-      <c r="L127" s="34"/>
-      <c r="M127" s="36" t="e">
+      <c r="D127" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="21">
+        <v>1</v>
+      </c>
+      <c r="F127" s="21">
+        <v>1</v>
+      </c>
+      <c r="G127" s="21">
+        <v>1</v>
+      </c>
+      <c r="H127" s="21">
+        <v>1</v>
+      </c>
+      <c r="I127" s="21">
+        <v>1</v>
+      </c>
+      <c r="J127" s="21">
+        <v>1</v>
+      </c>
+      <c r="K127" s="21">
+        <v>86</v>
+      </c>
+      <c r="L127" s="21">
+        <v>60</v>
+      </c>
+      <c r="M127" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N127" s="34"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="34">
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="N127" s="21"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="21">
         <v>33</v>
       </c>
-      <c r="C128" s="34">
+      <c r="C128" s="21">
         <v>220426</v>
       </c>
-      <c r="D128" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="34">
-        <v>1</v>
-      </c>
-      <c r="F128" s="34">
-        <v>0</v>
-      </c>
-      <c r="G128" s="34">
-        <v>0</v>
-      </c>
-      <c r="H128" s="34">
-        <v>0</v>
-      </c>
-      <c r="I128" s="34">
-        <v>0</v>
-      </c>
-      <c r="J128" s="34">
-        <v>0</v>
-      </c>
-      <c r="K128" s="34"/>
-      <c r="L128" s="34"/>
-      <c r="M128" s="36" t="e">
+      <c r="D128" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="21">
+        <v>1</v>
+      </c>
+      <c r="F128" s="21">
+        <v>1</v>
+      </c>
+      <c r="G128" s="21">
+        <v>1</v>
+      </c>
+      <c r="H128" s="21">
+        <v>1</v>
+      </c>
+      <c r="I128" s="21">
+        <v>1</v>
+      </c>
+      <c r="J128" s="21">
+        <v>1</v>
+      </c>
+      <c r="K128" s="21">
+        <v>21</v>
+      </c>
+      <c r="L128" s="21">
+        <v>15</v>
+      </c>
+      <c r="M128" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N128" s="34"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N128" s="21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="34">
+      <c r="A129" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="21">
         <v>33</v>
       </c>
-      <c r="C129" s="34">
+      <c r="C129" s="21">
         <v>220428</v>
       </c>
-      <c r="D129" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="34">
-        <v>1</v>
-      </c>
-      <c r="F129" s="34">
-        <v>0</v>
-      </c>
-      <c r="G129" s="34">
-        <v>0</v>
-      </c>
-      <c r="H129" s="34">
-        <v>0</v>
-      </c>
-      <c r="I129" s="34">
-        <v>0</v>
-      </c>
-      <c r="J129" s="34">
-        <v>0</v>
-      </c>
-      <c r="K129" s="34"/>
-      <c r="L129" s="34"/>
-      <c r="M129" s="36" t="e">
+      <c r="D129" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="21">
+        <v>1</v>
+      </c>
+      <c r="F129" s="21">
+        <v>1</v>
+      </c>
+      <c r="G129" s="21">
+        <v>1</v>
+      </c>
+      <c r="H129" s="21">
+        <v>1</v>
+      </c>
+      <c r="I129" s="21">
+        <v>1</v>
+      </c>
+      <c r="J129" s="21">
+        <v>1</v>
+      </c>
+      <c r="K129" s="21">
+        <v>106</v>
+      </c>
+      <c r="L129" s="21">
+        <v>72</v>
+      </c>
+      <c r="M129" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N129" s="34"/>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="N129" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
@@ -6779,320 +6870,364 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N130" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="34">
+      <c r="A131" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="21">
         <v>34</v>
       </c>
-      <c r="C131" s="34">
+      <c r="C131" s="21">
         <v>220614</v>
       </c>
-      <c r="D131" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="34">
-        <v>1</v>
-      </c>
-      <c r="F131" s="34">
-        <v>0</v>
-      </c>
-      <c r="G131" s="34">
-        <v>0</v>
-      </c>
-      <c r="H131" s="34">
-        <v>0</v>
-      </c>
-      <c r="I131" s="34">
-        <v>0</v>
-      </c>
-      <c r="J131" s="34">
-        <v>0</v>
-      </c>
-      <c r="K131" s="34"/>
-      <c r="L131" s="34"/>
-      <c r="M131" s="36" t="e">
+      <c r="D131" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="21">
+        <v>1</v>
+      </c>
+      <c r="F131" s="21">
+        <v>1</v>
+      </c>
+      <c r="G131" s="21">
+        <v>1</v>
+      </c>
+      <c r="H131" s="21">
+        <v>1</v>
+      </c>
+      <c r="I131" s="21">
+        <v>1</v>
+      </c>
+      <c r="J131" s="21">
+        <v>1</v>
+      </c>
+      <c r="K131" s="21">
+        <v>17</v>
+      </c>
+      <c r="L131" s="21">
+        <v>10</v>
+      </c>
+      <c r="M131" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N131" s="34"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="N131" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="34">
+      <c r="A132" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="21">
         <v>34</v>
       </c>
-      <c r="C132" s="34">
+      <c r="C132" s="21">
         <v>220614</v>
       </c>
-      <c r="D132" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="34">
-        <v>1</v>
-      </c>
-      <c r="F132" s="34">
-        <v>0</v>
-      </c>
-      <c r="G132" s="34">
-        <v>0</v>
-      </c>
-      <c r="H132" s="34">
-        <v>0</v>
-      </c>
-      <c r="I132" s="34">
-        <v>0</v>
-      </c>
-      <c r="J132" s="34">
-        <v>0</v>
-      </c>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34"/>
-      <c r="M132" s="36" t="e">
+      <c r="D132" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="21">
+        <v>1</v>
+      </c>
+      <c r="F132" s="21">
+        <v>1</v>
+      </c>
+      <c r="G132" s="21">
+        <v>1</v>
+      </c>
+      <c r="H132" s="21">
+        <v>1</v>
+      </c>
+      <c r="I132" s="21">
+        <v>1</v>
+      </c>
+      <c r="J132" s="21">
+        <v>1</v>
+      </c>
+      <c r="K132" s="21">
+        <v>51</v>
+      </c>
+      <c r="L132" s="21">
+        <v>41</v>
+      </c>
+      <c r="M132" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N132" s="34"/>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="N132" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="34">
+      <c r="A133" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" s="21">
         <v>34</v>
       </c>
-      <c r="C133" s="34">
+      <c r="C133" s="21">
         <v>220615</v>
       </c>
-      <c r="D133" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="34">
-        <v>1</v>
-      </c>
-      <c r="F133" s="34">
-        <v>0</v>
-      </c>
-      <c r="G133" s="34">
-        <v>0</v>
-      </c>
-      <c r="H133" s="34">
-        <v>0</v>
-      </c>
-      <c r="I133" s="34">
-        <v>0</v>
-      </c>
-      <c r="J133" s="34">
-        <v>0</v>
-      </c>
-      <c r="K133" s="34"/>
-      <c r="L133" s="34"/>
-      <c r="M133" s="36" t="e">
+      <c r="D133" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="21">
+        <v>1</v>
+      </c>
+      <c r="F133" s="21">
+        <v>1</v>
+      </c>
+      <c r="G133" s="21">
+        <v>1</v>
+      </c>
+      <c r="H133" s="21">
+        <v>1</v>
+      </c>
+      <c r="I133" s="21">
+        <v>1</v>
+      </c>
+      <c r="J133" s="21">
+        <v>1</v>
+      </c>
+      <c r="K133" s="21">
+        <v>96</v>
+      </c>
+      <c r="L133" s="21">
+        <v>62</v>
+      </c>
+      <c r="M133" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N133" s="34"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N133" s="21" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="34">
+      <c r="A134" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="21">
         <v>34</v>
       </c>
-      <c r="C134" s="34">
+      <c r="C134" s="21">
         <v>220615</v>
       </c>
-      <c r="D134" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="34">
-        <v>1</v>
-      </c>
-      <c r="F134" s="34">
-        <v>0</v>
-      </c>
-      <c r="G134" s="34">
-        <v>0</v>
-      </c>
-      <c r="H134" s="34">
-        <v>0</v>
-      </c>
-      <c r="I134" s="34">
-        <v>0</v>
-      </c>
-      <c r="J134" s="34">
-        <v>0</v>
-      </c>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
-      <c r="M134" s="36" t="e">
+      <c r="D134" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="21">
+        <v>1</v>
+      </c>
+      <c r="F134" s="21">
+        <v>1</v>
+      </c>
+      <c r="G134" s="21">
+        <v>1</v>
+      </c>
+      <c r="H134" s="21">
+        <v>1</v>
+      </c>
+      <c r="I134" s="21">
+        <v>1</v>
+      </c>
+      <c r="J134" s="21">
+        <v>1</v>
+      </c>
+      <c r="K134" s="21">
+        <v>44</v>
+      </c>
+      <c r="L134" s="21">
+        <v>34</v>
+      </c>
+      <c r="M134" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N134" s="34"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="N134" s="21"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="34">
+      <c r="A135" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="21">
         <v>34</v>
       </c>
-      <c r="C135" s="34">
+      <c r="C135" s="21">
         <v>220616</v>
       </c>
-      <c r="D135" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135" s="34">
-        <v>1</v>
-      </c>
-      <c r="F135" s="34">
-        <v>0</v>
-      </c>
-      <c r="G135" s="34">
-        <v>0</v>
-      </c>
-      <c r="H135" s="34">
-        <v>0</v>
-      </c>
-      <c r="I135" s="34">
-        <v>0</v>
-      </c>
-      <c r="J135" s="34">
-        <v>0</v>
-      </c>
-      <c r="K135" s="34"/>
-      <c r="L135" s="34"/>
-      <c r="M135" s="36" t="e">
+      <c r="D135" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="21">
+        <v>1</v>
+      </c>
+      <c r="F135" s="21">
+        <v>1</v>
+      </c>
+      <c r="G135" s="21">
+        <v>1</v>
+      </c>
+      <c r="H135" s="21">
+        <v>1</v>
+      </c>
+      <c r="I135" s="21">
+        <v>1</v>
+      </c>
+      <c r="J135" s="21">
+        <v>1</v>
+      </c>
+      <c r="K135" s="21">
+        <v>99</v>
+      </c>
+      <c r="L135" s="21">
+        <v>76</v>
+      </c>
+      <c r="M135" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N135" s="34"/>
+        <v>0.76767676767676762</v>
+      </c>
+      <c r="N135" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="34">
+      <c r="A136" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="21">
         <v>34</v>
       </c>
-      <c r="C136" s="34">
+      <c r="C136" s="21">
         <v>220616</v>
       </c>
-      <c r="D136" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="34">
-        <v>1</v>
-      </c>
-      <c r="F136" s="34">
-        <v>0</v>
-      </c>
-      <c r="G136" s="34">
-        <v>0</v>
-      </c>
-      <c r="H136" s="34">
-        <v>0</v>
-      </c>
-      <c r="I136" s="34">
-        <v>0</v>
-      </c>
-      <c r="J136" s="34">
-        <v>0</v>
-      </c>
-      <c r="K136" s="34"/>
-      <c r="L136" s="34"/>
-      <c r="M136" s="36" t="e">
+      <c r="D136" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="21">
+        <v>1</v>
+      </c>
+      <c r="F136" s="21">
+        <v>1</v>
+      </c>
+      <c r="G136" s="21">
+        <v>1</v>
+      </c>
+      <c r="H136" s="21">
+        <v>1</v>
+      </c>
+      <c r="I136" s="21">
+        <v>1</v>
+      </c>
+      <c r="J136" s="21">
+        <v>1</v>
+      </c>
+      <c r="K136" s="21">
+        <v>64</v>
+      </c>
+      <c r="L136" s="21">
+        <v>49</v>
+      </c>
+      <c r="M136" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N136" s="34"/>
+        <v>0.765625</v>
+      </c>
+      <c r="N136" s="21"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="34">
+      <c r="A137" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="21">
         <v>34</v>
       </c>
-      <c r="C137" s="34">
+      <c r="C137" s="21">
         <v>220617</v>
       </c>
-      <c r="D137" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="34">
-        <v>1</v>
-      </c>
-      <c r="F137" s="34">
-        <v>0</v>
-      </c>
-      <c r="G137" s="34">
-        <v>0</v>
-      </c>
-      <c r="H137" s="34">
-        <v>0</v>
-      </c>
-      <c r="I137" s="34">
-        <v>0</v>
-      </c>
-      <c r="J137" s="34">
-        <v>0</v>
-      </c>
-      <c r="K137" s="34"/>
-      <c r="L137" s="34"/>
-      <c r="M137" s="36" t="e">
+      <c r="D137" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="21">
+        <v>1</v>
+      </c>
+      <c r="F137" s="21">
+        <v>1</v>
+      </c>
+      <c r="G137" s="21">
+        <v>1</v>
+      </c>
+      <c r="H137" s="21">
+        <v>1</v>
+      </c>
+      <c r="I137" s="21">
+        <v>1</v>
+      </c>
+      <c r="J137" s="21">
+        <v>1</v>
+      </c>
+      <c r="K137" s="21">
+        <v>102</v>
+      </c>
+      <c r="L137" s="21">
+        <v>77</v>
+      </c>
+      <c r="M137" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N137" s="34"/>
+        <v>0.75490196078431371</v>
+      </c>
+      <c r="N137" s="21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B138" s="34">
+      <c r="A138" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="21">
         <v>34</v>
       </c>
-      <c r="C138" s="34">
+      <c r="C138" s="21">
         <v>220617</v>
       </c>
-      <c r="D138" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="34">
-        <v>1</v>
-      </c>
-      <c r="F138" s="34">
-        <v>0</v>
-      </c>
-      <c r="G138" s="34">
-        <v>0</v>
-      </c>
-      <c r="H138" s="34">
-        <v>0</v>
-      </c>
-      <c r="I138" s="34">
-        <v>0</v>
-      </c>
-      <c r="J138" s="34">
-        <v>0</v>
-      </c>
-      <c r="K138" s="34"/>
-      <c r="L138" s="34"/>
-      <c r="M138" s="36" t="e">
+      <c r="D138" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="21">
+        <v>1</v>
+      </c>
+      <c r="F138" s="21">
+        <v>1</v>
+      </c>
+      <c r="G138" s="21">
+        <v>1</v>
+      </c>
+      <c r="H138" s="21">
+        <v>1</v>
+      </c>
+      <c r="I138" s="21">
+        <v>1</v>
+      </c>
+      <c r="J138" s="21">
+        <v>1</v>
+      </c>
+      <c r="K138" s="21">
+        <v>64</v>
+      </c>
+      <c r="L138" s="21">
+        <v>34</v>
+      </c>
+      <c r="M138" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N138" s="34"/>
+        <v>0.53125</v>
+      </c>
+      <c r="N138" s="21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
@@ -7136,229 +7271,255 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B140" s="34">
+      <c r="A140" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="21">
         <v>34</v>
       </c>
-      <c r="C140" s="34">
+      <c r="C140" s="21">
         <v>220620</v>
       </c>
-      <c r="D140" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="34">
-        <v>1</v>
-      </c>
-      <c r="F140" s="34">
-        <v>0</v>
-      </c>
-      <c r="G140" s="34">
-        <v>0</v>
-      </c>
-      <c r="H140" s="34">
-        <v>0</v>
-      </c>
-      <c r="I140" s="34">
-        <v>0</v>
-      </c>
-      <c r="J140" s="34">
-        <v>0</v>
-      </c>
-      <c r="K140" s="34"/>
-      <c r="L140" s="34"/>
-      <c r="M140" s="36" t="e">
+      <c r="D140" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="21">
+        <v>1</v>
+      </c>
+      <c r="F140" s="21">
+        <v>1</v>
+      </c>
+      <c r="G140" s="21">
+        <v>1</v>
+      </c>
+      <c r="H140" s="21">
+        <v>1</v>
+      </c>
+      <c r="I140" s="21">
+        <v>1</v>
+      </c>
+      <c r="J140" s="21">
+        <v>1</v>
+      </c>
+      <c r="K140" s="21">
+        <v>51</v>
+      </c>
+      <c r="L140" s="21">
+        <v>34</v>
+      </c>
+      <c r="M140" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N140" s="34"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N140" s="21"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B141" s="34">
+      <c r="A141" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" s="21">
         <v>34</v>
       </c>
-      <c r="C141" s="34">
+      <c r="C141" s="21">
         <v>220621</v>
       </c>
-      <c r="D141" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="34">
-        <v>1</v>
-      </c>
-      <c r="F141" s="34">
-        <v>0</v>
-      </c>
-      <c r="G141" s="34">
-        <v>0</v>
-      </c>
-      <c r="H141" s="34">
-        <v>0</v>
-      </c>
-      <c r="I141" s="34">
-        <v>0</v>
-      </c>
-      <c r="J141" s="34">
-        <v>0</v>
-      </c>
-      <c r="K141" s="34"/>
-      <c r="L141" s="34"/>
-      <c r="M141" s="36" t="e">
+      <c r="D141" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="21">
+        <v>1</v>
+      </c>
+      <c r="F141" s="21">
+        <v>1</v>
+      </c>
+      <c r="G141" s="21">
+        <v>1</v>
+      </c>
+      <c r="H141" s="21">
+        <v>1</v>
+      </c>
+      <c r="I141" s="21">
+        <v>1</v>
+      </c>
+      <c r="J141" s="21">
+        <v>1</v>
+      </c>
+      <c r="K141" s="21">
+        <v>54</v>
+      </c>
+      <c r="L141" s="21">
+        <v>29</v>
+      </c>
+      <c r="M141" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N141" s="34"/>
+        <v>0.53703703703703709</v>
+      </c>
+      <c r="N141" s="21" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B142" s="34">
+      <c r="A142" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="21">
         <v>34</v>
       </c>
-      <c r="C142" s="34">
+      <c r="C142" s="21">
         <v>220621</v>
       </c>
-      <c r="D142" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="34">
-        <v>1</v>
-      </c>
-      <c r="F142" s="34">
-        <v>0</v>
-      </c>
-      <c r="G142" s="34">
-        <v>0</v>
-      </c>
-      <c r="H142" s="34">
-        <v>0</v>
-      </c>
-      <c r="I142" s="34">
-        <v>0</v>
-      </c>
-      <c r="J142" s="34">
-        <v>0</v>
-      </c>
-      <c r="K142" s="34"/>
-      <c r="L142" s="34"/>
-      <c r="M142" s="36" t="e">
+      <c r="D142" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="21">
+        <v>1</v>
+      </c>
+      <c r="F142" s="21">
+        <v>1</v>
+      </c>
+      <c r="G142" s="21">
+        <v>1</v>
+      </c>
+      <c r="H142" s="21">
+        <v>1</v>
+      </c>
+      <c r="I142" s="21">
+        <v>1</v>
+      </c>
+      <c r="J142" s="21">
+        <v>1</v>
+      </c>
+      <c r="K142" s="21">
+        <v>106</v>
+      </c>
+      <c r="L142" s="21">
+        <v>66</v>
+      </c>
+      <c r="M142" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N142" s="34"/>
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="N142" s="21" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B143" s="34">
+      <c r="A143" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="21">
         <v>34</v>
       </c>
-      <c r="C143" s="34">
+      <c r="C143" s="21">
         <v>220623</v>
       </c>
-      <c r="D143" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" s="34">
-        <v>1</v>
-      </c>
-      <c r="F143" s="34">
-        <v>0</v>
-      </c>
-      <c r="G143" s="34">
-        <v>0</v>
-      </c>
-      <c r="H143" s="34">
-        <v>0</v>
-      </c>
-      <c r="I143" s="34">
-        <v>0</v>
-      </c>
-      <c r="J143" s="34">
-        <v>0</v>
-      </c>
-      <c r="K143" s="34"/>
-      <c r="L143" s="34"/>
-      <c r="M143" s="36" t="e">
+      <c r="D143" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="21">
+        <v>1</v>
+      </c>
+      <c r="F143" s="21">
+        <v>1</v>
+      </c>
+      <c r="G143" s="21">
+        <v>1</v>
+      </c>
+      <c r="H143" s="21">
+        <v>1</v>
+      </c>
+      <c r="I143" s="21">
+        <v>1</v>
+      </c>
+      <c r="J143" s="21">
+        <v>1</v>
+      </c>
+      <c r="K143" s="21">
+        <v>73</v>
+      </c>
+      <c r="L143" s="21">
+        <v>54</v>
+      </c>
+      <c r="M143" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N143" s="34"/>
+        <v>0.73972602739726023</v>
+      </c>
+      <c r="N143" s="21" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B144" s="34">
+      <c r="A144" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="21">
         <v>34</v>
       </c>
-      <c r="C144" s="34">
+      <c r="C144" s="21">
         <v>220623</v>
       </c>
-      <c r="D144" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144" s="34">
-        <v>1</v>
-      </c>
-      <c r="F144" s="34">
-        <v>0</v>
-      </c>
-      <c r="G144" s="34">
-        <v>0</v>
-      </c>
-      <c r="H144" s="34">
-        <v>0</v>
-      </c>
-      <c r="I144" s="34">
-        <v>0</v>
-      </c>
-      <c r="J144" s="34">
-        <v>0</v>
-      </c>
-      <c r="K144" s="34"/>
-      <c r="L144" s="34"/>
-      <c r="M144" s="36" t="e">
+      <c r="D144" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="21">
+        <v>1</v>
+      </c>
+      <c r="F144" s="21">
+        <v>1</v>
+      </c>
+      <c r="G144" s="21">
+        <v>1</v>
+      </c>
+      <c r="H144" s="21">
+        <v>1</v>
+      </c>
+      <c r="I144" s="21">
+        <v>1</v>
+      </c>
+      <c r="J144" s="21">
+        <v>1</v>
+      </c>
+      <c r="K144" s="21">
+        <v>70</v>
+      </c>
+      <c r="L144" s="21">
+        <v>50</v>
+      </c>
+      <c r="M144" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N144" s="34"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N144" s="21"/>
     </row>
     <row r="145" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D145" s="13"/>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <f>ROWS(J3:J144)-SUM(J3:J144)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L145">
         <f>SUM(L3:L144)</f>
-        <v>5303</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="146" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D146" s="13"/>
       <c r="I146" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J146">
         <f>SUM(J3:J144) - 16</f>
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7368,7 +7529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7379,19 +7540,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
